--- a/Utilities/Tabla_direcciones.xlsx
+++ b/Utilities/Tabla_direcciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvelascorios\Google Drive\Xcore\Proyectos\Asegurados-IMSS\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D5F7B8-763F-421A-8B61-17EDB6D9471F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A797CF2A-0799-4E7D-AF83-8169F148FA35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB31077C-629B-4D37-967E-473C16463A0D}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="43">
   <si>
     <t>Year</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>http://datos.imss.gob.mx/node/1007/download</t>
+  </si>
+  <si>
+    <t>http://datos.imss.gob.mx/node/1113/download</t>
   </si>
 </sst>
 </file>
@@ -528,13 +531,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04771951-A14A-4007-ADC4-A4E53E2539F8}">
-  <dimension ref="A1:H282"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5773,7 +5776,7 @@
         <v>33</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" ref="D132:D195" si="27">+LEFT(C175,30)</f>
+        <f t="shared" ref="D175" si="27">+LEFT(C175,30)</f>
         <v>http://datos.imss.gob.mx/node/</v>
       </c>
       <c r="E175" s="2">
@@ -9000,6 +9003,36 @@
       <c r="H282" t="str">
         <f t="shared" si="35"/>
         <v>http://datos.imss.gob.mx/node/1107/download</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>2021</v>
+      </c>
+      <c r="B283" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D283" t="str">
+        <f t="shared" ref="D283" si="36">+LEFT(C283,30)</f>
+        <v>http://datos.imss.gob.mx/node/</v>
+      </c>
+      <c r="E283">
+        <v>1113</v>
+      </c>
+      <c r="F283" t="str">
+        <f t="shared" ref="F283" si="37">+RIGHT(C283,9)</f>
+        <v>/download</v>
+      </c>
+      <c r="G283" t="str">
+        <f t="shared" ref="G283" si="38">+_xlfn.CONCAT(D283,E283,F283)</f>
+        <v>http://datos.imss.gob.mx/node/1113/download</v>
+      </c>
+      <c r="H283" t="str">
+        <f t="shared" ref="H283" si="39">+TEXT(G283,)</f>
+        <v>http://datos.imss.gob.mx/node/1113/download</v>
       </c>
     </row>
   </sheetData>
@@ -9521,7 +9554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B271:B282">
+  <conditionalFormatting sqref="B271:B283">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9551,8 +9584,9 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{080EE532-9001-43E1-82B0-F58A1235DCCC}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{E083AB69-1451-4080-9584-8C7E2B61A23C}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{589CC20E-CB3F-4DC2-8D53-8EC5508C93B4}"/>
+    <hyperlink ref="C283" r:id="rId6" xr:uid="{3EBD00EE-581A-4063-9480-7A3CC5E8073F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Utilities/Tabla_direcciones.xlsx
+++ b/Utilities/Tabla_direcciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvelascorios\Google Drive\Xcore\Proyectos\Asegurados-IMSS\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A797CF2A-0799-4E7D-AF83-8169F148FA35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183A9640-A31E-41F9-AA55-7FDAF83CD5BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB31077C-629B-4D37-967E-473C16463A0D}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="44">
   <si>
     <t>Year</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>http://datos.imss.gob.mx/node/1113/download</t>
+  </si>
+  <si>
+    <t>http://datos.imss.gob.mx/node/1116/download</t>
   </si>
 </sst>
 </file>
@@ -531,13 +534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04771951-A14A-4007-ADC4-A4E53E2539F8}">
-  <dimension ref="A1:H283"/>
+  <dimension ref="A1:H284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A283" sqref="A283"/>
+      <selection pane="bottomRight" activeCell="A284" sqref="A284:H284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9016,23 +9019,53 @@
         <v>42</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" ref="D283" si="36">+LEFT(C283,30)</f>
+        <f t="shared" ref="D283:D284" si="36">+LEFT(C283,30)</f>
         <v>http://datos.imss.gob.mx/node/</v>
       </c>
       <c r="E283">
         <v>1113</v>
       </c>
       <c r="F283" t="str">
-        <f t="shared" ref="F283" si="37">+RIGHT(C283,9)</f>
+        <f t="shared" ref="F283:F284" si="37">+RIGHT(C283,9)</f>
         <v>/download</v>
       </c>
       <c r="G283" t="str">
-        <f t="shared" ref="G283" si="38">+_xlfn.CONCAT(D283,E283,F283)</f>
+        <f t="shared" ref="G283:G284" si="38">+_xlfn.CONCAT(D283,E283,F283)</f>
         <v>http://datos.imss.gob.mx/node/1113/download</v>
       </c>
       <c r="H283" t="str">
-        <f t="shared" ref="H283" si="39">+TEXT(G283,)</f>
+        <f t="shared" ref="H283:H284" si="39">+TEXT(G283,)</f>
         <v>http://datos.imss.gob.mx/node/1113/download</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>2021</v>
+      </c>
+      <c r="B284" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D284" t="str">
+        <f t="shared" si="36"/>
+        <v>http://datos.imss.gob.mx/node/</v>
+      </c>
+      <c r="E284">
+        <v>1116</v>
+      </c>
+      <c r="F284" t="str">
+        <f t="shared" si="37"/>
+        <v>/download</v>
+      </c>
+      <c r="G284" t="str">
+        <f t="shared" si="38"/>
+        <v>http://datos.imss.gob.mx/node/1116/download</v>
+      </c>
+      <c r="H284" t="str">
+        <f t="shared" si="39"/>
+        <v>http://datos.imss.gob.mx/node/1116/download</v>
       </c>
     </row>
   </sheetData>
@@ -9554,7 +9587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B271:B283">
+  <conditionalFormatting sqref="B271:B284">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9585,8 +9618,9 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{E083AB69-1451-4080-9584-8C7E2B61A23C}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{589CC20E-CB3F-4DC2-8D53-8EC5508C93B4}"/>
     <hyperlink ref="C283" r:id="rId6" xr:uid="{3EBD00EE-581A-4063-9480-7A3CC5E8073F}"/>
+    <hyperlink ref="C284" r:id="rId7" xr:uid="{12F826D3-9CC3-4304-80CE-36F8E6B5815C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Utilities/Tabla_direcciones.xlsx
+++ b/Utilities/Tabla_direcciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvelascorios\Google Drive\Xcore\Proyectos\Asegurados-IMSS\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183A9640-A31E-41F9-AA55-7FDAF83CD5BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DCD00E-6E25-4DEE-8A84-5C8E35DF6741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB31077C-629B-4D37-967E-473C16463A0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DB31077C-629B-4D37-967E-473C16463A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="IMSS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="45">
   <si>
     <t>Year</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>http://datos.imss.gob.mx/node/1116/download</t>
+  </si>
+  <si>
+    <t>http://datos.imss.gob.mx/node/1118/download</t>
   </si>
 </sst>
 </file>
@@ -534,13 +537,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04771951-A14A-4007-ADC4-A4E53E2539F8}">
-  <dimension ref="A1:H284"/>
+  <dimension ref="A1:H285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A284" sqref="A284:H284"/>
+      <selection pane="bottomRight" activeCell="H285" sqref="H285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9019,22 +9022,22 @@
         <v>42</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" ref="D283:D284" si="36">+LEFT(C283,30)</f>
+        <f t="shared" ref="D283:D285" si="36">+LEFT(C283,30)</f>
         <v>http://datos.imss.gob.mx/node/</v>
       </c>
       <c r="E283">
         <v>1113</v>
       </c>
       <c r="F283" t="str">
-        <f t="shared" ref="F283:F284" si="37">+RIGHT(C283,9)</f>
+        <f t="shared" ref="F283:F285" si="37">+RIGHT(C283,9)</f>
         <v>/download</v>
       </c>
       <c r="G283" t="str">
-        <f t="shared" ref="G283:G284" si="38">+_xlfn.CONCAT(D283,E283,F283)</f>
+        <f t="shared" ref="G283:G285" si="38">+_xlfn.CONCAT(D283,E283,F283)</f>
         <v>http://datos.imss.gob.mx/node/1113/download</v>
       </c>
       <c r="H283" t="str">
-        <f t="shared" ref="H283:H284" si="39">+TEXT(G283,)</f>
+        <f t="shared" ref="H283:H285" si="39">+TEXT(G283,)</f>
         <v>http://datos.imss.gob.mx/node/1113/download</v>
       </c>
     </row>
@@ -9066,6 +9069,36 @@
       <c r="H284" t="str">
         <f t="shared" si="39"/>
         <v>http://datos.imss.gob.mx/node/1116/download</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>2021</v>
+      </c>
+      <c r="B285" t="s">
+        <v>16</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D285" t="str">
+        <f t="shared" si="36"/>
+        <v>http://datos.imss.gob.mx/node/</v>
+      </c>
+      <c r="E285">
+        <v>1118</v>
+      </c>
+      <c r="F285" t="str">
+        <f t="shared" si="37"/>
+        <v>/download</v>
+      </c>
+      <c r="G285" t="str">
+        <f t="shared" si="38"/>
+        <v>http://datos.imss.gob.mx/node/1118/download</v>
+      </c>
+      <c r="H285" t="str">
+        <f t="shared" si="39"/>
+        <v>http://datos.imss.gob.mx/node/1118/download</v>
       </c>
     </row>
   </sheetData>
@@ -9587,7 +9620,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B271:B284">
+  <conditionalFormatting sqref="B271:B285">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9619,8 +9652,9 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{589CC20E-CB3F-4DC2-8D53-8EC5508C93B4}"/>
     <hyperlink ref="C283" r:id="rId6" xr:uid="{3EBD00EE-581A-4063-9480-7A3CC5E8073F}"/>
     <hyperlink ref="C284" r:id="rId7" xr:uid="{12F826D3-9CC3-4304-80CE-36F8E6B5815C}"/>
+    <hyperlink ref="C285" r:id="rId8" xr:uid="{AB2D2798-E208-4DF7-B977-9D14530E4156}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Utilities/Tabla_direcciones.xlsx
+++ b/Utilities/Tabla_direcciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvelascorios\Google Drive\Xcore\Proyectos\Asegurados-IMSS\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DCD00E-6E25-4DEE-8A84-5C8E35DF6741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29030B12-A96D-4458-8FFC-0660B10CC92F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DB31077C-629B-4D37-967E-473C16463A0D}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>http://datos.imss.gob.mx/node/1118/download</t>
+  </si>
+  <si>
+    <t>http://datos.imss.gob.mx/node/1120/download</t>
   </si>
 </sst>
 </file>
@@ -537,13 +540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04771951-A14A-4007-ADC4-A4E53E2539F8}">
-  <dimension ref="A1:H285"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H285" sqref="H285"/>
+      <selection pane="bottomRight" activeCell="A286" sqref="A286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9099,6 +9102,36 @@
       <c r="H285" t="str">
         <f t="shared" si="39"/>
         <v>http://datos.imss.gob.mx/node/1118/download</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>2021</v>
+      </c>
+      <c r="B286" t="s">
+        <v>17</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D286" t="str">
+        <f t="shared" ref="D286" si="40">+LEFT(C286,30)</f>
+        <v>http://datos.imss.gob.mx/node/</v>
+      </c>
+      <c r="E286">
+        <v>1120</v>
+      </c>
+      <c r="F286" t="str">
+        <f t="shared" ref="F286" si="41">+RIGHT(C286,9)</f>
+        <v>/download</v>
+      </c>
+      <c r="G286" t="str">
+        <f t="shared" ref="G286" si="42">+_xlfn.CONCAT(D286,E286,F286)</f>
+        <v>http://datos.imss.gob.mx/node/1120/download</v>
+      </c>
+      <c r="H286" t="str">
+        <f t="shared" ref="H286" si="43">+TEXT(G286,)</f>
+        <v>http://datos.imss.gob.mx/node/1120/download</v>
       </c>
     </row>
   </sheetData>
@@ -9620,7 +9653,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B271:B285">
+  <conditionalFormatting sqref="B271:B286">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9653,8 +9686,9 @@
     <hyperlink ref="C283" r:id="rId6" xr:uid="{3EBD00EE-581A-4063-9480-7A3CC5E8073F}"/>
     <hyperlink ref="C284" r:id="rId7" xr:uid="{12F826D3-9CC3-4304-80CE-36F8E6B5815C}"/>
     <hyperlink ref="C285" r:id="rId8" xr:uid="{AB2D2798-E208-4DF7-B977-9D14530E4156}"/>
+    <hyperlink ref="C286" r:id="rId9" xr:uid="{92FBCF26-A089-4342-8BBA-6B6513DBB557}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Utilities/Tabla_direcciones.xlsx
+++ b/Utilities/Tabla_direcciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvelascorios\Google Drive\Xcore\Proyectos\Asegurados-IMSS\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29030B12-A96D-4458-8FFC-0660B10CC92F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7E5D80-0698-4870-BF78-2C3209193B86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DB31077C-629B-4D37-967E-473C16463A0D}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>http://datos.imss.gob.mx/node/1120/download</t>
+  </si>
+  <si>
+    <t>http://datos.imss.gob.mx/node/1125/download</t>
   </si>
 </sst>
 </file>
@@ -540,24 +543,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04771951-A14A-4007-ADC4-A4E53E2539F8}">
-  <dimension ref="A1:H286"/>
+  <dimension ref="A1:H287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A286" sqref="A286"/>
+      <selection pane="bottomRight" activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.27734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1997</v>
       </c>
@@ -614,7 +617,7 @@
         <v>http://datos.imss.gob.mx/node/751/download</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1997</v>
       </c>
@@ -644,7 +647,7 @@
         <v>http://datos.imss.gob.mx/node/750/download</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -674,7 +677,7 @@
         <v>http://datos.imss.gob.mx/node/749/download</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -704,7 +707,7 @@
         <v>http://datos.imss.gob.mx/node/741/download</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1997</v>
       </c>
@@ -734,7 +737,7 @@
         <v>http://datos.imss.gob.mx/node/610/download</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1998</v>
       </c>
@@ -764,7 +767,7 @@
         <v>http://datos.imss.gob.mx/node/748/download</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1998</v>
       </c>
@@ -794,7 +797,7 @@
         <v>http://datos.imss.gob.mx/node/747/download</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1998</v>
       </c>
@@ -824,7 +827,7 @@
         <v>http://datos.imss.gob.mx/node/746/download</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1998</v>
       </c>
@@ -854,7 +857,7 @@
         <v>http://datos.imss.gob.mx/node/745/download</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1998</v>
       </c>
@@ -884,7 +887,7 @@
         <v>http://datos.imss.gob.mx/node/744/download</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -914,7 +917,7 @@
         <v>http://datos.imss.gob.mx/node/743/download</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1998</v>
       </c>
@@ -944,7 +947,7 @@
         <v>http://datos.imss.gob.mx/node/742/download</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1998</v>
       </c>
@@ -974,7 +977,7 @@
         <v>http://datos.imss.gob.mx/node/740/download</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1998</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>http://datos.imss.gob.mx/node/739/download</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1998</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>http://datos.imss.gob.mx/node/738/download</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1998</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>http://datos.imss.gob.mx/node/737/download</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1998</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>http://datos.imss.gob.mx/node/612/download</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1999</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>http://datos.imss.gob.mx/node/736/download</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1999</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>http://datos.imss.gob.mx/node/735/download</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1999</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>http://datos.imss.gob.mx/node/734/download</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>http://datos.imss.gob.mx/node/733/download</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1999</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>http://datos.imss.gob.mx/node/732/download</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>http://datos.imss.gob.mx/node/731/download</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1999</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>http://datos.imss.gob.mx/node/730/download</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1999</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>http://datos.imss.gob.mx/node/729/download</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1999</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>http://datos.imss.gob.mx/node/728/download</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1999</v>
       </c>
@@ -1394,7 +1397,7 @@
         <v>http://datos.imss.gob.mx/node/726/download</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1999</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>http://datos.imss.gob.mx/node/725/download</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1999</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>http://datos.imss.gob.mx/node/614/download</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2000</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>http://datos.imss.gob.mx/node/595/download</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>2000</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>http://datos.imss.gob.mx/node/596/download</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>2000</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>http://datos.imss.gob.mx/node/597/download</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>2000</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>http://datos.imss.gob.mx/node/598/download</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>2000</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>http://datos.imss.gob.mx/node/599/download</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>2000</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>http://datos.imss.gob.mx/node/600/download</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>2000</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>http://datos.imss.gob.mx/node/601/download</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>2000</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>http://datos.imss.gob.mx/node/602/download</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>2000</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>http://datos.imss.gob.mx/node/603/download</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>2000</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>http://datos.imss.gob.mx/node/604/download</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>2000</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>http://datos.imss.gob.mx/node/605/download</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>2000</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>http://datos.imss.gob.mx/node/506/download</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>2001</v>
       </c>
@@ -1844,7 +1847,7 @@
         <v>http://datos.imss.gob.mx/node/558/download</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>2001</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>http://datos.imss.gob.mx/node/559/download</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>2001</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>http://datos.imss.gob.mx/node/560/download</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>2001</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>http://datos.imss.gob.mx/node/561/download</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>2001</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>http://datos.imss.gob.mx/node/562/download</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>2001</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>http://datos.imss.gob.mx/node/563/download</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>2001</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>http://datos.imss.gob.mx/node/564/download</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>2001</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>http://datos.imss.gob.mx/node/565/download</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>2001</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>http://datos.imss.gob.mx/node/566/download</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>2001</v>
       </c>
@@ -2114,7 +2117,7 @@
         <v>http://datos.imss.gob.mx/node/567/download</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>2001</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>http://datos.imss.gob.mx/node/568/download</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>2001</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>http://datos.imss.gob.mx/node/508/download</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>2002</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>http://datos.imss.gob.mx/node/549/download</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>2002</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>http://datos.imss.gob.mx/node/550/download</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>2002</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>http://datos.imss.gob.mx/node/551/download</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>2002</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>http://datos.imss.gob.mx/node/545/download</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>2002</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>http://datos.imss.gob.mx/node/546/download</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>2002</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>http://datos.imss.gob.mx/node/552/download</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>2002</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>http://datos.imss.gob.mx/node/553/download</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>2002</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>http://datos.imss.gob.mx/node/554/download</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>2002</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>http://datos.imss.gob.mx/node/555/download</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>2002</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>http://datos.imss.gob.mx/node/556/download</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>2002</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>http://datos.imss.gob.mx/node/557/download</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>2002</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>http://datos.imss.gob.mx/node/511/download</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>2003</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>http://datos.imss.gob.mx/node/515/download</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>2003</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>http://datos.imss.gob.mx/node/516/download</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>2003</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>http://datos.imss.gob.mx/node/517/download</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>2003</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>http://datos.imss.gob.mx/node/518/download</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>2003</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>http://datos.imss.gob.mx/node/519/download</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>2003</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>http://datos.imss.gob.mx/node/520/download</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>2003</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>http://datos.imss.gob.mx/node/521/download</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>2003</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>http://datos.imss.gob.mx/node/522/download</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>2003</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>http://datos.imss.gob.mx/node/523/download</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>2003</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>http://datos.imss.gob.mx/node/524/download</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>2003</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>http://datos.imss.gob.mx/node/525/download</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>2003</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>http://datos.imss.gob.mx/node/512/download</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>2004</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>http://datos.imss.gob.mx/node/387/download</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>2004</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>http://datos.imss.gob.mx/node/388/download</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>2004</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>http://datos.imss.gob.mx/node/389/download</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>2004</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>http://datos.imss.gob.mx/node/390/download</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>2004</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>http://datos.imss.gob.mx/node/391/download</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>2004</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>http://datos.imss.gob.mx/node/392/download</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>2004</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>http://datos.imss.gob.mx/node/393/download</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>2004</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>http://datos.imss.gob.mx/node/394/download</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>2004</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>http://datos.imss.gob.mx/node/395/download</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>2004</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>http://datos.imss.gob.mx/node/396/download</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>2004</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>http://datos.imss.gob.mx/node/397/download</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>2004</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>http://datos.imss.gob.mx/node/398/download</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>2005</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>http://datos.imss.gob.mx/node/333/download</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>2005</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>http://datos.imss.gob.mx/node/334/download</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>2005</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>http://datos.imss.gob.mx/node/335/download</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>2005</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>http://datos.imss.gob.mx/node/336/download</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>2005</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>http://datos.imss.gob.mx/node/337/download</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>2005</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>http://datos.imss.gob.mx/node/338/download</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>2005</v>
       </c>
@@ -3464,7 +3467,7 @@
         <v>http://datos.imss.gob.mx/node/339/download</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>2005</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>http://datos.imss.gob.mx/node/340/download</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>2005</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>http://datos.imss.gob.mx/node/341/download</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>2005</v>
       </c>
@@ -3554,7 +3557,7 @@
         <v>http://datos.imss.gob.mx/node/342/download</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>2005</v>
       </c>
@@ -3584,7 +3587,7 @@
         <v>http://datos.imss.gob.mx/node/343/download</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>2005</v>
       </c>
@@ -3614,7 +3617,7 @@
         <v>http://datos.imss.gob.mx/node/344/download</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>2006</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>http://datos.imss.gob.mx/node/294/download</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>2006</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>http://datos.imss.gob.mx/node/295/download</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>2006</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>http://datos.imss.gob.mx/node/296/download</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>2006</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>http://datos.imss.gob.mx/node/297/download</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>2006</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>http://datos.imss.gob.mx/node/298/download</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>2006</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>http://datos.imss.gob.mx/node/299/download</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>2006</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>http://datos.imss.gob.mx/node/300/download</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>2006</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>http://datos.imss.gob.mx/node/301/download</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>2006</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>http://datos.imss.gob.mx/node/302/download</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>2006</v>
       </c>
@@ -3914,7 +3917,7 @@
         <v>http://datos.imss.gob.mx/node/303/download</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>2006</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>http://datos.imss.gob.mx/node/304/download</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>2006</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>http://datos.imss.gob.mx/node/305/download</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>2007</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>http://datos.imss.gob.mx/node/281/download</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>2007</v>
       </c>
@@ -4034,7 +4037,7 @@
         <v>http://datos.imss.gob.mx/node/282/download</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>2007</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>http://datos.imss.gob.mx/node/283/download</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>2007</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>http://datos.imss.gob.mx/node/284/download</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>2007</v>
       </c>
@@ -4124,7 +4127,7 @@
         <v>http://datos.imss.gob.mx/node/285/download</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>2007</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>http://datos.imss.gob.mx/node/286/download</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>2007</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>http://datos.imss.gob.mx/node/287/download</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>2007</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>http://datos.imss.gob.mx/node/288/download</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>2007</v>
       </c>
@@ -4244,7 +4247,7 @@
         <v>http://datos.imss.gob.mx/node/289/download</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>2007</v>
       </c>
@@ -4274,7 +4277,7 @@
         <v>http://datos.imss.gob.mx/node/290/download</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>2007</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>http://datos.imss.gob.mx/node/291/download</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>2007</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>http://datos.imss.gob.mx/node/292/download</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>2008</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>http://datos.imss.gob.mx/node/262/download</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>2008</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>http://datos.imss.gob.mx/node/264/download</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>2008</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>http://datos.imss.gob.mx/node/265/download</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>2008</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>http://datos.imss.gob.mx/node/266/download</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>2008</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>http://datos.imss.gob.mx/node/267/download</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>2008</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>http://datos.imss.gob.mx/node/268/download</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>2008</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>http://datos.imss.gob.mx/node/269/download</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>2008</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>http://datos.imss.gob.mx/node/270/download</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>2008</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>http://datos.imss.gob.mx/node/271/download</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>2008</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>http://datos.imss.gob.mx/node/272/download</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>2008</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>http://datos.imss.gob.mx/node/273/download</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>2008</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>http://datos.imss.gob.mx/node/277/download</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>2009</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>http://datos.imss.gob.mx/node/158/download</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>2009</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>http://datos.imss.gob.mx/node/160/download</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>2009</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>http://datos.imss.gob.mx/node/161/download</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>2009</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>http://datos.imss.gob.mx/node/168/download</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>2009</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>http://datos.imss.gob.mx/node/180/download</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>2009</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>http://datos.imss.gob.mx/node/182/download</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>2009</v>
       </c>
@@ -4904,7 +4907,7 @@
         <v>http://datos.imss.gob.mx/node/183/download</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>2009</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>http://datos.imss.gob.mx/node/184/download</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>2009</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>http://datos.imss.gob.mx/node/185/download</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>2009</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>http://datos.imss.gob.mx/node/186/download</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>2009</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>http://datos.imss.gob.mx/node/187/download</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>2009</v>
       </c>
@@ -5054,7 +5057,7 @@
         <v>http://datos.imss.gob.mx/node/188/download</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>2010</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>http://datos.imss.gob.mx/node/169/download</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>2010</v>
       </c>
@@ -5114,7 +5117,7 @@
         <v>http://datos.imss.gob.mx/node/170/download</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>2010</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>http://datos.imss.gob.mx/node/171/download</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>2010</v>
       </c>
@@ -5174,7 +5177,7 @@
         <v>http://datos.imss.gob.mx/node/172/download</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>2010</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>http://datos.imss.gob.mx/node/173/download</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>2010</v>
       </c>
@@ -5234,7 +5237,7 @@
         <v>http://datos.imss.gob.mx/node/174/download</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>2010</v>
       </c>
@@ -5264,7 +5267,7 @@
         <v>http://datos.imss.gob.mx/node/175/download</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>2010</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>http://datos.imss.gob.mx/node/176/download</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>2010</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>http://datos.imss.gob.mx/node/177/download</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>2010</v>
       </c>
@@ -5354,7 +5357,7 @@
         <v>http://datos.imss.gob.mx/node/178/download</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>2010</v>
       </c>
@@ -5384,7 +5387,7 @@
         <v>http://datos.imss.gob.mx/node/179/download</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>2010</v>
       </c>
@@ -5414,7 +5417,7 @@
         <v>http://datos.imss.gob.mx/node/181/download</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>2011</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>http://datos.imss.gob.mx/node/159/download</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>2011</v>
       </c>
@@ -5474,7 +5477,7 @@
         <v>http://datos.imss.gob.mx/node/156/download</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>2011</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>http://datos.imss.gob.mx/node/155/download</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>2011</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>http://datos.imss.gob.mx/node/154/download</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>2011</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>http://datos.imss.gob.mx/node/153/download</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>2011</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>http://datos.imss.gob.mx/node/152/download</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>2011</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>http://datos.imss.gob.mx/node/151/download</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>2011</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>http://datos.imss.gob.mx/node/150/download</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>2011</v>
       </c>
@@ -5684,7 +5687,7 @@
         <v>http://datos.imss.gob.mx/node/149/download</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>2011</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>http://datos.imss.gob.mx/node/148/download</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>2011</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>http://datos.imss.gob.mx/node/147/download</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>2011</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>http://datos.imss.gob.mx/node/146/download</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>2012</v>
       </c>
@@ -5804,7 +5807,7 @@
         <v>http://datos.imss.gob.mx/node/143/download</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>2012</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>http://datos.imss.gob.mx/node/142/download</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>2012</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>http://datos.imss.gob.mx/node/141/download</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>2012</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>http://datos.imss.gob.mx/node/140/download</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>2012</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>http://datos.imss.gob.mx/node/139/download</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>2012</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>http://datos.imss.gob.mx/node/138/download</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>2012</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>http://datos.imss.gob.mx/node/137/download</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>2012</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>http://datos.imss.gob.mx/node/136/download</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>2012</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>http://datos.imss.gob.mx/node/135/download</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>2012</v>
       </c>
@@ -6074,7 +6077,7 @@
         <v>http://datos.imss.gob.mx/node/134/download</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>2012</v>
       </c>
@@ -6104,7 +6107,7 @@
         <v>http://datos.imss.gob.mx/node/133/download</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>2012</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>http://datos.imss.gob.mx/node/84/download</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>2013</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>http://datos.imss.gob.mx/node/20/download</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>2013</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>http://datos.imss.gob.mx/node/23/download</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>2013</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>http://datos.imss.gob.mx/node/24/download</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>2013</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>http://datos.imss.gob.mx/node/55/download</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>2013</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>http://datos.imss.gob.mx/node/57/download</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>2013</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>http://datos.imss.gob.mx/node/58/download</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>2013</v>
       </c>
@@ -6344,7 +6347,7 @@
         <v>http://datos.imss.gob.mx/node/59/download</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>2013</v>
       </c>
@@ -6374,7 +6377,7 @@
         <v>http://datos.imss.gob.mx/node/60/download</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>2013</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>http://datos.imss.gob.mx/node/63/download</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>2013</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>http://datos.imss.gob.mx/node/64/download</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>2013</v>
       </c>
@@ -6464,7 +6467,7 @@
         <v>http://datos.imss.gob.mx/node/65/download</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>2013</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>http://datos.imss.gob.mx/node/66/download</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>2014</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>http://datos.imss.gob.mx/node/72/download</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>2014</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>http://datos.imss.gob.mx/node/73/download</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>2014</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>http://datos.imss.gob.mx/node/74/download</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>2014</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>http://datos.imss.gob.mx/node/76/download</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>2014</v>
       </c>
@@ -6644,7 +6647,7 @@
         <v>http://datos.imss.gob.mx/node/75/download</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>2014</v>
       </c>
@@ -6674,7 +6677,7 @@
         <v>http://datos.imss.gob.mx/node/77/download</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>2014</v>
       </c>
@@ -6704,7 +6707,7 @@
         <v>http://datos.imss.gob.mx/node/78/download</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>2014</v>
       </c>
@@ -6734,7 +6737,7 @@
         <v>http://datos.imss.gob.mx/node/79/download</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>2014</v>
       </c>
@@ -6764,7 +6767,7 @@
         <v>http://datos.imss.gob.mx/node/81/download</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>2014</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>http://datos.imss.gob.mx/node/194/download</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>2014</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>http://datos.imss.gob.mx/node/195/download</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>2014</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>http://datos.imss.gob.mx/node/196/download</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>2015</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>http://datos.imss.gob.mx/node/190/download</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>2015</v>
       </c>
@@ -6914,7 +6917,7 @@
         <v>http://datos.imss.gob.mx/node/191/download</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>2015</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>http://datos.imss.gob.mx/node/192/download</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>2015</v>
       </c>
@@ -6974,7 +6977,7 @@
         <v>http://datos.imss.gob.mx/node/193/download</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>2015</v>
       </c>
@@ -7004,7 +7007,7 @@
         <v>http://datos.imss.gob.mx/node/276/download</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>2015</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>http://datos.imss.gob.mx/node/279/download</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>2015</v>
       </c>
@@ -7064,7 +7067,7 @@
         <v>http://datos.imss.gob.mx/node/306/download</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>2015</v>
       </c>
@@ -7094,7 +7097,7 @@
         <v>http://datos.imss.gob.mx/node/308/download</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>2015</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>http://datos.imss.gob.mx/node/310/download</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>2015</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>http://datos.imss.gob.mx/node/319/download</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>2015</v>
       </c>
@@ -7184,7 +7187,7 @@
         <v>http://datos.imss.gob.mx/node/321/download</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>2015</v>
       </c>
@@ -7214,7 +7217,7 @@
         <v>http://datos.imss.gob.mx/node/325/download</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>2016</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>http://datos.imss.gob.mx/node/327/download</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>2016</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>http://datos.imss.gob.mx/node/371/download</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>2016</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v>http://datos.imss.gob.mx/node/377/download</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>2016</v>
       </c>
@@ -7334,7 +7337,7 @@
         <v>http://datos.imss.gob.mx/node/400/download</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>2016</v>
       </c>
@@ -7364,7 +7367,7 @@
         <v>http://datos.imss.gob.mx/node/401/download</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>2016</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>http://datos.imss.gob.mx/node/405/download</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>2016</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>http://datos.imss.gob.mx/node/502/download</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>2016</v>
       </c>
@@ -7454,7 +7457,7 @@
         <v>http://datos.imss.gob.mx/node/513/download</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>2016</v>
       </c>
@@ -7484,7 +7487,7 @@
         <v>http://datos.imss.gob.mx/node/526/download</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>2016</v>
       </c>
@@ -7514,7 +7517,7 @@
         <v>http://datos.imss.gob.mx/node/537/download</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>2016</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>http://datos.imss.gob.mx/node/541/download</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>2016</v>
       </c>
@@ -7574,7 +7577,7 @@
         <v>http://datos.imss.gob.mx/node/543/download</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>2017</v>
       </c>
@@ -7604,7 +7607,7 @@
         <v>http://datos.imss.gob.mx/node/548/download</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>2017</v>
       </c>
@@ -7634,7 +7637,7 @@
         <v>http://datos.imss.gob.mx/node/577/download</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>2017</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>http://datos.imss.gob.mx/node/580/download</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>2017</v>
       </c>
@@ -7694,7 +7697,7 @@
         <v>http://datos.imss.gob.mx/node/591/download</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>2017</v>
       </c>
@@ -7724,7 +7727,7 @@
         <v>http://datos.imss.gob.mx/node/593/download</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>2017</v>
       </c>
@@ -7754,7 +7757,7 @@
         <v>http://datos.imss.gob.mx/node/607/download</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>2017</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>http://datos.imss.gob.mx/node/621/download</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>2017</v>
       </c>
@@ -7814,7 +7817,7 @@
         <v>http://datos.imss.gob.mx/node/629/download</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>2017</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>http://datos.imss.gob.mx/node/634/download</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>2017</v>
       </c>
@@ -7874,7 +7877,7 @@
         <v>http://datos.imss.gob.mx/node/672/download</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>2017</v>
       </c>
@@ -7904,7 +7907,7 @@
         <v>http://datos.imss.gob.mx/node/701/download</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>2017</v>
       </c>
@@ -7934,7 +7937,7 @@
         <v>http://datos.imss.gob.mx/node/702/download</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>2018</v>
       </c>
@@ -7964,7 +7967,7 @@
         <v>http://datos.imss.gob.mx/node/706/download</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>2018</v>
       </c>
@@ -7994,7 +7997,7 @@
         <v>http://datos.imss.gob.mx/node/714/download</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>2018</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>http://datos.imss.gob.mx/node/716/download</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>2018</v>
       </c>
@@ -8054,7 +8057,7 @@
         <v>http://datos.imss.gob.mx/node/718/download</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>2018</v>
       </c>
@@ -8084,7 +8087,7 @@
         <v>http://datos.imss.gob.mx/node/761/download</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>2018</v>
       </c>
@@ -8114,7 +8117,7 @@
         <v>http://datos.imss.gob.mx/node/763/download</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>2018</v>
       </c>
@@ -8144,7 +8147,7 @@
         <v>http://datos.imss.gob.mx/node/785/download</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>2018</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>http://datos.imss.gob.mx/node/787/download</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>2018</v>
       </c>
@@ -8204,7 +8207,7 @@
         <v>http://datos.imss.gob.mx/node/795/download</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>2018</v>
       </c>
@@ -8234,7 +8237,7 @@
         <v>http://datos.imss.gob.mx/node/833/download</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>2018</v>
       </c>
@@ -8264,7 +8267,7 @@
         <v>http://datos.imss.gob.mx/node/841/download</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>2018</v>
       </c>
@@ -8294,7 +8297,7 @@
         <v>http://datos.imss.gob.mx/node/843/download</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>2019</v>
       </c>
@@ -8324,7 +8327,7 @@
         <v>http://datos.imss.gob.mx/node/858/download</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>2019</v>
       </c>
@@ -8354,7 +8357,7 @@
         <v>http://datos.imss.gob.mx/node/966/download</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>2019</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>http://datos.imss.gob.mx/node/974/download</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>2019</v>
       </c>
@@ -8414,7 +8417,7 @@
         <v>http://datos.imss.gob.mx/node/976/download</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>2019</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>http://datos.imss.gob.mx/node/978/download</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>2019</v>
       </c>
@@ -8474,7 +8477,7 @@
         <v>http://datos.imss.gob.mx/node/980/download</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>2019</v>
       </c>
@@ -8504,7 +8507,7 @@
         <v>http://datos.imss.gob.mx/node/984/download</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>2019</v>
       </c>
@@ -8534,7 +8537,7 @@
         <v>http://datos.imss.gob.mx/node/988/download</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>2019</v>
       </c>
@@ -8564,7 +8567,7 @@
         <v>http://datos.imss.gob.mx/node/990/download</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>2019</v>
       </c>
@@ -8594,7 +8597,7 @@
         <v>http://datos.imss.gob.mx/node/994/download</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>2019</v>
       </c>
@@ -8624,7 +8627,7 @@
         <v>http://datos.imss.gob.mx/node/1002/download</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>2019</v>
       </c>
@@ -8654,7 +8657,7 @@
         <v>http://datos.imss.gob.mx/node/1004/download</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>2020</v>
       </c>
@@ -8684,7 +8687,7 @@
         <v>http://datos.imss.gob.mx/node/1007/download</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>2020</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>http://datos.imss.gob.mx/node/1010/download</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>2020</v>
       </c>
@@ -8744,7 +8747,7 @@
         <v>http://datos.imss.gob.mx/node/1078/download</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>2020</v>
       </c>
@@ -8774,7 +8777,7 @@
         <v>http://datos.imss.gob.mx/node/1080/download</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>2020</v>
       </c>
@@ -8804,7 +8807,7 @@
         <v>http://datos.imss.gob.mx/node/1082/download</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>2020</v>
       </c>
@@ -8834,7 +8837,7 @@
         <v>http://datos.imss.gob.mx/node/1086/download</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>2020</v>
       </c>
@@ -8864,7 +8867,7 @@
         <v>http://datos.imss.gob.mx/node/1090/download</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>2020</v>
       </c>
@@ -8894,7 +8897,7 @@
         <v>http://datos.imss.gob.mx/node/1098/download</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>2020</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>http://datos.imss.gob.mx/node/1100/download</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>2020</v>
       </c>
@@ -8954,7 +8957,7 @@
         <v>http://datos.imss.gob.mx/node/1102/download</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>2020</v>
       </c>
@@ -8984,7 +8987,7 @@
         <v>http://datos.imss.gob.mx/node/1104/download</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>2020</v>
       </c>
@@ -9014,7 +9017,7 @@
         <v>http://datos.imss.gob.mx/node/1107/download</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>2021</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>http://datos.imss.gob.mx/node/1113/download</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>2021</v>
       </c>
@@ -9074,7 +9077,7 @@
         <v>http://datos.imss.gob.mx/node/1116/download</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>2021</v>
       </c>
@@ -9104,7 +9107,7 @@
         <v>http://datos.imss.gob.mx/node/1118/download</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>2021</v>
       </c>
@@ -9134,10 +9137,64 @@
         <v>http://datos.imss.gob.mx/node/1120/download</v>
       </c>
     </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A287">
+        <v>2021</v>
+      </c>
+      <c r="B287" t="s">
+        <v>18</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D287" t="str">
+        <f t="shared" ref="D287" si="44">+LEFT(C287,30)</f>
+        <v>http://datos.imss.gob.mx/node/</v>
+      </c>
+      <c r="E287">
+        <v>1125</v>
+      </c>
+      <c r="F287" t="str">
+        <f t="shared" ref="F287" si="45">+RIGHT(C287,9)</f>
+        <v>/download</v>
+      </c>
+      <c r="G287" t="str">
+        <f t="shared" ref="G287" si="46">+_xlfn.CONCAT(D287,E287,F287)</f>
+        <v>http://datos.imss.gob.mx/node/1125/download</v>
+      </c>
+      <c r="H287" t="str">
+        <f t="shared" ref="H287" si="47">+TEXT(G287,)</f>
+        <v>http://datos.imss.gob.mx/node/1125/download</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H172" xr:uid="{DA97F8CF-E2BF-4DC7-AFBA-B8D8867E63D6}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A18 A20:A66 A283:A1048576">
+  <conditionalFormatting sqref="A2:A18 A20:A66 A283:A286 A288:A1048576">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B18">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B6">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -9149,7 +9206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B18">
+  <conditionalFormatting sqref="A19:A30">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -9161,19 +9218,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B6">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A30">
+  <conditionalFormatting sqref="B19:B30">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -9185,7 +9230,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B30">
+  <conditionalFormatting sqref="B31:B42">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:B54">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -9197,7 +9254,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B42">
+  <conditionalFormatting sqref="B55:B66">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -9209,7 +9266,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B54">
+  <conditionalFormatting sqref="A67:A78">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -9221,7 +9278,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B66">
+  <conditionalFormatting sqref="B67:B78">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -9233,7 +9290,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A78">
+  <conditionalFormatting sqref="A79:A90">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -9245,7 +9302,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B78">
+  <conditionalFormatting sqref="B79:B90">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -9257,7 +9314,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A90">
+  <conditionalFormatting sqref="A91:A102">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -9269,7 +9326,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B90">
+  <conditionalFormatting sqref="B91:B102">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -9281,7 +9338,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:A102">
+  <conditionalFormatting sqref="A103:A114">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -9293,7 +9350,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B102">
+  <conditionalFormatting sqref="B103:B114">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -9305,7 +9362,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:A114">
+  <conditionalFormatting sqref="A115:A126">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -9317,7 +9374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B103:B114">
+  <conditionalFormatting sqref="B115:B126">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -9329,7 +9386,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115:A126">
+  <conditionalFormatting sqref="A127:A138">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -9341,7 +9398,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B115:B126">
+  <conditionalFormatting sqref="B127:B138">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -9353,7 +9410,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127:A138">
+  <conditionalFormatting sqref="A139:A150">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -9365,7 +9422,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B138">
+  <conditionalFormatting sqref="B139:B150">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -9377,7 +9434,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A139:A150">
+  <conditionalFormatting sqref="A151:A162">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -9389,7 +9446,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B150">
+  <conditionalFormatting sqref="B151:B162">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -9401,7 +9458,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A162">
+  <conditionalFormatting sqref="A163:A174">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -9413,7 +9470,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B151:B162">
+  <conditionalFormatting sqref="B163:B174">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -9425,7 +9482,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A163:A174">
+  <conditionalFormatting sqref="A175:A186">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -9437,7 +9494,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B163:B174">
+  <conditionalFormatting sqref="B175:B186">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -9449,7 +9506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A175:A186">
+  <conditionalFormatting sqref="A187:A198">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -9461,7 +9518,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B175:B186">
+  <conditionalFormatting sqref="B187:B198">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -9473,7 +9530,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A187:A198">
+  <conditionalFormatting sqref="A199:A210">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -9485,7 +9542,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B187:B198">
+  <conditionalFormatting sqref="B199:B210">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -9497,7 +9554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A199:A210">
+  <conditionalFormatting sqref="A211:A222">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -9509,7 +9566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B199:B210">
+  <conditionalFormatting sqref="B211:B222">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -9521,7 +9578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A211:A222">
+  <conditionalFormatting sqref="A223:A234">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -9533,7 +9590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B211:B222">
+  <conditionalFormatting sqref="B223:B234">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -9545,7 +9602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A223:A234">
+  <conditionalFormatting sqref="A235:A246">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -9557,7 +9614,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B223:B234">
+  <conditionalFormatting sqref="B235:B246">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -9569,7 +9626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A235:A246">
+  <conditionalFormatting sqref="A247:A258">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -9581,7 +9638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B235:B246">
+  <conditionalFormatting sqref="B247:B258">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9593,7 +9650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A247:A258">
+  <conditionalFormatting sqref="A259:A270">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9605,7 +9662,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B247:B258">
+  <conditionalFormatting sqref="B259:B270">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9617,7 +9674,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A259:A270">
+  <conditionalFormatting sqref="A271:A282">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9629,7 +9686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B259:B270">
+  <conditionalFormatting sqref="B271:B287">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9641,7 +9698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A271:A282">
+  <conditionalFormatting sqref="A2:A282">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9653,20 +9710,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B271:B286">
+  <conditionalFormatting sqref="A287">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A282">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9687,8 +9732,9 @@
     <hyperlink ref="C284" r:id="rId7" xr:uid="{12F826D3-9CC3-4304-80CE-36F8E6B5815C}"/>
     <hyperlink ref="C285" r:id="rId8" xr:uid="{AB2D2798-E208-4DF7-B977-9D14530E4156}"/>
     <hyperlink ref="C286" r:id="rId9" xr:uid="{92FBCF26-A089-4342-8BBA-6B6513DBB557}"/>
+    <hyperlink ref="C287" r:id="rId10" xr:uid="{AEB1DCB8-727A-4F20-9F9E-0D5D913E2416}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Utilities/Tabla_direcciones.xlsx
+++ b/Utilities/Tabla_direcciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvelascorios\Google Drive\Xcore\Proyectos\Asegurados-IMSS\Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvelascorios\Google Drive\Movido\Xcore\Proyectos\Asegurados-IMSS\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7E5D80-0698-4870-BF78-2C3209193B86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF37DFD-BD58-4CC0-BE06-9C0E2DCCF0AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DB31077C-629B-4D37-967E-473C16463A0D}"/>
+    <workbookView xWindow="-120" yWindow="336" windowWidth="29040" windowHeight="15990" xr2:uid="{DB31077C-629B-4D37-967E-473C16463A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="IMSS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -230,7 +230,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,16 +543,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04771951-A14A-4007-ADC4-A4E53E2539F8}">
-  <dimension ref="A1:H287"/>
+  <dimension ref="A1:H288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E287" sqref="E287"/>
+      <selection pane="bottomRight" activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.27734375" bestFit="1" customWidth="1"/>
@@ -9167,10 +9167,52 @@
         <v>http://datos.imss.gob.mx/node/1125/download</v>
       </c>
     </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A288">
+        <v>2021</v>
+      </c>
+      <c r="B288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D288" t="str">
+        <f t="shared" ref="D288" si="48">+LEFT(C288,30)</f>
+        <v>http://datos.imss.gob.mx/node/</v>
+      </c>
+      <c r="E288">
+        <v>1129</v>
+      </c>
+      <c r="F288" t="str">
+        <f t="shared" ref="F288" si="49">+RIGHT(C288,9)</f>
+        <v>/download</v>
+      </c>
+      <c r="G288" t="str">
+        <f t="shared" ref="G288" si="50">+_xlfn.CONCAT(D288,E288,F288)</f>
+        <v>http://datos.imss.gob.mx/node/1129/download</v>
+      </c>
+      <c r="H288" t="str">
+        <f t="shared" ref="H288" si="51">+TEXT(G288,)</f>
+        <v>http://datos.imss.gob.mx/node/1129/download</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H172" xr:uid="{DA97F8CF-E2BF-4DC7-AFBA-B8D8867E63D6}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A18 A20:A66 A283:A286 A288:A1048576">
+  <conditionalFormatting sqref="A2:A18 A20:A66 A283:A286 A289:A1048576">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B18">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -9182,7 +9224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B18">
+  <conditionalFormatting sqref="B2:B6">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -9194,7 +9236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B6">
+  <conditionalFormatting sqref="A19:A30">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -9206,8 +9248,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A30">
-    <cfRule type="colorScale" priority="45">
+  <conditionalFormatting sqref="B19:B30">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9218,7 +9260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B30">
+  <conditionalFormatting sqref="B31:B42">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -9230,7 +9272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B42">
+  <conditionalFormatting sqref="B43:B54">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -9242,7 +9284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B54">
+  <conditionalFormatting sqref="B55:B66">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -9254,7 +9296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B66">
+  <conditionalFormatting sqref="A67:A78">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -9266,7 +9308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A78">
+  <conditionalFormatting sqref="B67:B78">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -9278,7 +9320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B78">
+  <conditionalFormatting sqref="A79:A90">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -9290,7 +9332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A90">
+  <conditionalFormatting sqref="B79:B90">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -9302,7 +9344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B90">
+  <conditionalFormatting sqref="A91:A102">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -9314,7 +9356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:A102">
+  <conditionalFormatting sqref="B91:B102">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -9326,7 +9368,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B102">
+  <conditionalFormatting sqref="A103:A114">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -9338,7 +9380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:A114">
+  <conditionalFormatting sqref="B103:B114">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -9350,7 +9392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B103:B114">
+  <conditionalFormatting sqref="A115:A126">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -9362,7 +9404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115:A126">
+  <conditionalFormatting sqref="B115:B126">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -9374,7 +9416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B115:B126">
+  <conditionalFormatting sqref="A127:A138">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -9386,7 +9428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127:A138">
+  <conditionalFormatting sqref="B127:B138">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -9398,7 +9440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B138">
+  <conditionalFormatting sqref="A139:A150">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -9410,7 +9452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A139:A150">
+  <conditionalFormatting sqref="B139:B150">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -9422,7 +9464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B150">
+  <conditionalFormatting sqref="A151:A162">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -9434,7 +9476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A162">
+  <conditionalFormatting sqref="B151:B162">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -9446,7 +9488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B151:B162">
+  <conditionalFormatting sqref="A163:A174">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -9458,7 +9500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A163:A174">
+  <conditionalFormatting sqref="B163:B174">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -9470,7 +9512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B163:B174">
+  <conditionalFormatting sqref="A175:A186">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -9482,7 +9524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A175:A186">
+  <conditionalFormatting sqref="B175:B186">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -9494,7 +9536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B175:B186">
+  <conditionalFormatting sqref="A187:A198">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -9506,7 +9548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A187:A198">
+  <conditionalFormatting sqref="B187:B198">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -9518,7 +9560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B187:B198">
+  <conditionalFormatting sqref="A199:A210">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -9530,7 +9572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A199:A210">
+  <conditionalFormatting sqref="B199:B210">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -9542,7 +9584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B199:B210">
+  <conditionalFormatting sqref="A211:A222">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -9554,7 +9596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A211:A222">
+  <conditionalFormatting sqref="B211:B222">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -9566,7 +9608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B211:B222">
+  <conditionalFormatting sqref="A223:A234">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -9578,7 +9620,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A223:A234">
+  <conditionalFormatting sqref="B223:B234">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -9590,7 +9632,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B223:B234">
+  <conditionalFormatting sqref="A235:A246">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -9602,7 +9644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A235:A246">
+  <conditionalFormatting sqref="B235:B246">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -9614,7 +9656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B235:B246">
+  <conditionalFormatting sqref="A247:A258">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -9626,7 +9668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A247:A258">
+  <conditionalFormatting sqref="B247:B258">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -9638,7 +9680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B247:B258">
+  <conditionalFormatting sqref="A259:A270">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9650,7 +9692,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A259:A270">
+  <conditionalFormatting sqref="B259:B270">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9662,7 +9704,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B259:B270">
+  <conditionalFormatting sqref="A271:A282">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9674,7 +9716,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A271:A282">
+  <conditionalFormatting sqref="B271:B288">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9686,7 +9728,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B271:B287">
+  <conditionalFormatting sqref="A2:A282">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9698,7 +9740,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A282">
+  <conditionalFormatting sqref="A287">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9710,8 +9752,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A287">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="A288">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9733,8 +9775,9 @@
     <hyperlink ref="C285" r:id="rId8" xr:uid="{AB2D2798-E208-4DF7-B977-9D14530E4156}"/>
     <hyperlink ref="C286" r:id="rId9" xr:uid="{92FBCF26-A089-4342-8BBA-6B6513DBB557}"/>
     <hyperlink ref="C287" r:id="rId10" xr:uid="{AEB1DCB8-727A-4F20-9F9E-0D5D913E2416}"/>
+    <hyperlink ref="C288" r:id="rId11" xr:uid="{1A5943DF-D557-4582-AF6A-03BFB03C7FBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Utilities/Tabla_direcciones.xlsx
+++ b/Utilities/Tabla_direcciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvelascorios\Google Drive\Movido\Xcore\Proyectos\Asegurados-IMSS\Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvelascorios\Google Drive\Xcore\Proyectos\Asegurados-IMSS\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF37DFD-BD58-4CC0-BE06-9C0E2DCCF0AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90ED778-4FEA-47D5-AA0F-8A7B691417C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="336" windowWidth="29040" windowHeight="15990" xr2:uid="{DB31077C-629B-4D37-967E-473C16463A0D}"/>
+    <workbookView xWindow="-120" yWindow="792" windowWidth="29040" windowHeight="15990" xr2:uid="{DB31077C-629B-4D37-967E-473C16463A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="IMSS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -230,7 +230,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,16 +543,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04771951-A14A-4007-ADC4-A4E53E2539F8}">
-  <dimension ref="A1:H288"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A288" sqref="A288"/>
+      <selection pane="bottomRight" activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.27734375" bestFit="1" customWidth="1"/>
@@ -9178,29 +9178,59 @@
         <v>46</v>
       </c>
       <c r="D288" t="str">
-        <f t="shared" ref="D288" si="48">+LEFT(C288,30)</f>
+        <f t="shared" ref="D288:D289" si="48">+LEFT(C288,30)</f>
         <v>http://datos.imss.gob.mx/node/</v>
       </c>
       <c r="E288">
         <v>1129</v>
       </c>
       <c r="F288" t="str">
-        <f t="shared" ref="F288" si="49">+RIGHT(C288,9)</f>
+        <f t="shared" ref="F288:F289" si="49">+RIGHT(C288,9)</f>
         <v>/download</v>
       </c>
       <c r="G288" t="str">
-        <f t="shared" ref="G288" si="50">+_xlfn.CONCAT(D288,E288,F288)</f>
+        <f t="shared" ref="G288:G289" si="50">+_xlfn.CONCAT(D288,E288,F288)</f>
         <v>http://datos.imss.gob.mx/node/1129/download</v>
       </c>
       <c r="H288" t="str">
-        <f t="shared" ref="H288" si="51">+TEXT(G288,)</f>
+        <f t="shared" ref="H288:H289" si="51">+TEXT(G288,)</f>
         <v>http://datos.imss.gob.mx/node/1129/download</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A289">
+        <v>2021</v>
+      </c>
+      <c r="B289" t="s">
+        <v>20</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D289" t="str">
+        <f t="shared" si="48"/>
+        <v>http://datos.imss.gob.mx/node/</v>
+      </c>
+      <c r="E289">
+        <v>1131</v>
+      </c>
+      <c r="F289" t="str">
+        <f t="shared" si="49"/>
+        <v>/download</v>
+      </c>
+      <c r="G289" t="str">
+        <f t="shared" si="50"/>
+        <v>http://datos.imss.gob.mx/node/1131/download</v>
+      </c>
+      <c r="H289" t="str">
+        <f t="shared" si="51"/>
+        <v>http://datos.imss.gob.mx/node/1131/download</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H172" xr:uid="{DA97F8CF-E2BF-4DC7-AFBA-B8D8867E63D6}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A18 A20:A66 A283:A286 A289:A1048576">
+  <conditionalFormatting sqref="A2:A18 A20:A66 A283:A286 A290:A1048576">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -9716,7 +9746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B271:B288">
+  <conditionalFormatting sqref="B271:B289">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9752,7 +9782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A288">
+  <conditionalFormatting sqref="A288:A289">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9776,8 +9806,9 @@
     <hyperlink ref="C286" r:id="rId9" xr:uid="{92FBCF26-A089-4342-8BBA-6B6513DBB557}"/>
     <hyperlink ref="C287" r:id="rId10" xr:uid="{AEB1DCB8-727A-4F20-9F9E-0D5D913E2416}"/>
     <hyperlink ref="C288" r:id="rId11" xr:uid="{1A5943DF-D557-4582-AF6A-03BFB03C7FBC}"/>
+    <hyperlink ref="C289" r:id="rId12" xr:uid="{C9F4083A-4681-4921-9171-80376041F4B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Utilities/Tabla_direcciones.xlsx
+++ b/Utilities/Tabla_direcciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvelascorios\Google Drive\Xcore\Proyectos\Asegurados-IMSS\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90ED778-4FEA-47D5-AA0F-8A7B691417C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD3D4CA-72DB-46AE-BDA1-EC0EACA694D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="792" windowWidth="29040" windowHeight="15990" xr2:uid="{DB31077C-629B-4D37-967E-473C16463A0D}"/>
+    <workbookView xWindow="-120" yWindow="1248" windowWidth="29040" windowHeight="15990" xr2:uid="{DB31077C-629B-4D37-967E-473C16463A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="IMSS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -543,13 +543,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04771951-A14A-4007-ADC4-A4E53E2539F8}">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:H290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D282" sqref="D282"/>
+      <selection pane="bottomRight" activeCell="H290" sqref="H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -9227,10 +9227,52 @@
         <v>http://datos.imss.gob.mx/node/1131/download</v>
       </c>
     </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A290">
+        <v>2021</v>
+      </c>
+      <c r="B290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D290" t="str">
+        <f t="shared" ref="D290" si="52">+LEFT(C290,30)</f>
+        <v>http://datos.imss.gob.mx/node/</v>
+      </c>
+      <c r="E290">
+        <v>1133</v>
+      </c>
+      <c r="F290" t="str">
+        <f t="shared" ref="F290" si="53">+RIGHT(C290,9)</f>
+        <v>/download</v>
+      </c>
+      <c r="G290" t="str">
+        <f t="shared" ref="G290" si="54">+_xlfn.CONCAT(D290,E290,F290)</f>
+        <v>http://datos.imss.gob.mx/node/1133/download</v>
+      </c>
+      <c r="H290" t="str">
+        <f t="shared" ref="H290" si="55">+TEXT(G290,)</f>
+        <v>http://datos.imss.gob.mx/node/1133/download</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H172" xr:uid="{DA97F8CF-E2BF-4DC7-AFBA-B8D8867E63D6}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A18 A20:A66 A283:A286 A290:A1048576">
+  <conditionalFormatting sqref="A2:A18 A20:A66 A283:A286 A291:A1048576">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B18">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -9242,7 +9284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B18">
+  <conditionalFormatting sqref="B2:B6">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -9254,7 +9296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B6">
+  <conditionalFormatting sqref="A19:A30">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -9266,8 +9308,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A30">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="B19:B30">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9278,7 +9320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B30">
+  <conditionalFormatting sqref="B31:B42">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -9290,7 +9332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B42">
+  <conditionalFormatting sqref="B43:B54">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -9302,7 +9344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B54">
+  <conditionalFormatting sqref="B55:B66">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -9314,7 +9356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B66">
+  <conditionalFormatting sqref="A67:A78">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -9326,7 +9368,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A78">
+  <conditionalFormatting sqref="B67:B78">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -9338,7 +9380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B78">
+  <conditionalFormatting sqref="A79:A90">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -9350,7 +9392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A90">
+  <conditionalFormatting sqref="B79:B90">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -9362,7 +9404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B90">
+  <conditionalFormatting sqref="A91:A102">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -9374,7 +9416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:A102">
+  <conditionalFormatting sqref="B91:B102">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -9386,7 +9428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B102">
+  <conditionalFormatting sqref="A103:A114">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -9398,7 +9440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:A114">
+  <conditionalFormatting sqref="B103:B114">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -9410,7 +9452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B103:B114">
+  <conditionalFormatting sqref="A115:A126">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -9422,7 +9464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115:A126">
+  <conditionalFormatting sqref="B115:B126">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -9434,7 +9476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B115:B126">
+  <conditionalFormatting sqref="A127:A138">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -9446,7 +9488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127:A138">
+  <conditionalFormatting sqref="B127:B138">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -9458,7 +9500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B138">
+  <conditionalFormatting sqref="A139:A150">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -9470,7 +9512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A139:A150">
+  <conditionalFormatting sqref="B139:B150">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -9482,7 +9524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B150">
+  <conditionalFormatting sqref="A151:A162">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -9494,7 +9536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A162">
+  <conditionalFormatting sqref="B151:B162">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -9506,7 +9548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B151:B162">
+  <conditionalFormatting sqref="A163:A174">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -9518,7 +9560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A163:A174">
+  <conditionalFormatting sqref="B163:B174">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -9530,7 +9572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B163:B174">
+  <conditionalFormatting sqref="A175:A186">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -9542,7 +9584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A175:A186">
+  <conditionalFormatting sqref="B175:B186">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -9554,7 +9596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B175:B186">
+  <conditionalFormatting sqref="A187:A198">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -9566,7 +9608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A187:A198">
+  <conditionalFormatting sqref="B187:B198">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -9578,7 +9620,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B187:B198">
+  <conditionalFormatting sqref="A199:A210">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -9590,7 +9632,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A199:A210">
+  <conditionalFormatting sqref="B199:B210">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -9602,7 +9644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B199:B210">
+  <conditionalFormatting sqref="A211:A222">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -9614,7 +9656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A211:A222">
+  <conditionalFormatting sqref="B211:B222">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -9626,7 +9668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B211:B222">
+  <conditionalFormatting sqref="A223:A234">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -9638,7 +9680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A223:A234">
+  <conditionalFormatting sqref="B223:B234">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -9650,7 +9692,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B223:B234">
+  <conditionalFormatting sqref="A235:A246">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -9662,7 +9704,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A235:A246">
+  <conditionalFormatting sqref="B235:B246">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -9674,7 +9716,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B235:B246">
+  <conditionalFormatting sqref="A247:A258">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -9686,7 +9728,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A247:A258">
+  <conditionalFormatting sqref="B247:B258">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -9698,7 +9740,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B247:B258">
+  <conditionalFormatting sqref="A259:A270">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -9710,7 +9752,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A259:A270">
+  <conditionalFormatting sqref="B259:B270">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9722,7 +9764,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B259:B270">
+  <conditionalFormatting sqref="A271:A282">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9734,7 +9776,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A271:A282">
+  <conditionalFormatting sqref="B271:B290">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9746,7 +9788,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B271:B289">
+  <conditionalFormatting sqref="A2:A282">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9758,7 +9800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A282">
+  <conditionalFormatting sqref="A287">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9770,8 +9812,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A287">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="A288:A289">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9782,7 +9824,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A288:A289">
+  <conditionalFormatting sqref="A290">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9807,8 +9849,9 @@
     <hyperlink ref="C287" r:id="rId10" xr:uid="{AEB1DCB8-727A-4F20-9F9E-0D5D913E2416}"/>
     <hyperlink ref="C288" r:id="rId11" xr:uid="{1A5943DF-D557-4582-AF6A-03BFB03C7FBC}"/>
     <hyperlink ref="C289" r:id="rId12" xr:uid="{C9F4083A-4681-4921-9171-80376041F4B7}"/>
+    <hyperlink ref="C290" r:id="rId13" xr:uid="{867CFFE8-876E-4C12-A781-02280B2DF6A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Utilities/Tabla_direcciones.xlsx
+++ b/Utilities/Tabla_direcciones.xlsx
@@ -368,14 +368,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A271" activeCellId="0" sqref="A271"/>
-      <selection pane="bottomRight" activeCell="H291" activeCellId="0" sqref="H291"/>
+      <selection pane="bottomRight" activeCell="B292" activeCellId="0" sqref="B292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="38.83"/>
   </cols>
   <sheetData>
@@ -9081,7 +9081,7 @@
         <v>2021</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>46</v>
@@ -9698,7 +9698,7 @@
     <hyperlink ref="C289" r:id="rId12" display="http://datos.imss.gob.mx/node/1125/download"/>
     <hyperlink ref="C290" r:id="rId13" display="http://datos.imss.gob.mx/node/1125/download"/>
     <hyperlink ref="C291" r:id="rId14" display="http://datos.imss.gob.mx/node/1125/download"/>
-    <hyperlink ref="H291" r:id="rId15" display="http://datos.imss.gob.mx/node/1135/"/>
+    <hyperlink ref="H291" r:id="rId15" display="http://datos.imss.gob.mx/node/1135/download"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Utilities/Tabla_direcciones.xlsx
+++ b/Utilities/Tabla_direcciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvelascorios\Google Drive\Xcore\Proyectos\Asegurados-IMSS\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272BBFA1-F74E-4DCD-82BE-247C25FB4238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FC80D3-2310-4A86-86CE-5F766B305B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -609,13 +609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:H293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C271" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A271" sqref="A271"/>
-      <selection pane="bottomRight" activeCell="G289" sqref="G289"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.71875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -8314,7 +8314,7 @@
         <v>39</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" ref="D257:D320" si="16">+LEFT(C257,30)</f>
+        <f t="shared" ref="D257:D292" si="16">+LEFT(C257,30)</f>
         <v>http://datos.imss.gob.mx/node/</v>
       </c>
       <c r="E257">
@@ -8355,11 +8355,11 @@
         <v>/download</v>
       </c>
       <c r="G258" t="str">
-        <f t="shared" ref="G258:G321" si="18">+_xlfn.CONCAT(D258,E258,F258)</f>
+        <f t="shared" ref="G258:G291" si="18">+_xlfn.CONCAT(D258,E258,F258)</f>
         <v>http://datos.imss.gob.mx/node/843/download</v>
       </c>
       <c r="H258" t="str">
-        <f t="shared" ref="H258:H321" si="19">+TEXT(G258,)</f>
+        <f t="shared" ref="H258:H292" si="19">+TEXT(G258,)</f>
         <v>http://datos.imss.gob.mx/node/843/download</v>
       </c>
     </row>
@@ -9383,9 +9383,39 @@
         <v>http://datos.imss.gob.mx/node/1137/download</v>
       </c>
     </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A293">
+        <v>2021</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D293" t="str">
+        <f t="shared" ref="D293" si="22">+LEFT(C293,30)</f>
+        <v>http://datos.imss.gob.mx/node/</v>
+      </c>
+      <c r="E293">
+        <v>1142</v>
+      </c>
+      <c r="F293" t="str">
+        <f t="shared" ref="F293" si="23">+RIGHT(C293,9)</f>
+        <v>/download</v>
+      </c>
+      <c r="G293" t="str">
+        <f t="shared" ref="G293" si="24">+_xlfn.CONCAT(D293,E293,F293)</f>
+        <v>http://datos.imss.gob.mx/node/1142/download</v>
+      </c>
+      <c r="H293" t="str">
+        <f t="shared" ref="H293" si="25">+TEXT(G293,)</f>
+        <v>http://datos.imss.gob.mx/node/1142/download</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H172" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A2:A18 A20:A66 A283:A286 A291 A293:A1048576">
+  <conditionalFormatting sqref="A2:A18 A20:A66 A283:A286 A291 A294:A1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9901,7 +9931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B271:B292">
+  <conditionalFormatting sqref="B271:B293">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -9937,7 +9967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A288:A289 A292">
+  <conditionalFormatting sqref="A288:A289 A292:A293">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -9977,6 +10007,7 @@
     <hyperlink ref="C290" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="C291" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="C292" r:id="rId15" xr:uid="{EBD47CA1-6BFC-4E6C-80FF-F635A1766B93}"/>
+    <hyperlink ref="C293" r:id="rId16" xr:uid="{8FBFE6D8-ADD2-4BDB-B8F9-69E9FAA54A03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Utilities/Tabla_direcciones.xlsx
+++ b/Utilities/Tabla_direcciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvelascorios\Google Drive\Xcore\Proyectos\Asegurados-IMSS\Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjvel\Documents\GitHub\Asegurados-IMSS\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FC80D3-2310-4A86-86CE-5F766B305B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E21F70F-8ACD-4A58-A660-1E1D856EC9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMSS" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="48">
   <si>
     <t>Year</t>
   </si>
@@ -170,12 +179,15 @@
   <si>
     <t>http://datos.imss.gob.mx/node/1125/download</t>
   </si>
+  <si>
+    <t>http://datos.imss.gob.mx/node/1146/download</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -195,6 +207,12 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -221,11 +239,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -609,24 +628,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H293"/>
+  <dimension ref="A1:H294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C262" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A271" sqref="A271"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A294" sqref="A294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.71875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.27734375" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="6.44140625" customWidth="1"/>
-    <col min="7" max="8" width="38.83203125" customWidth="1"/>
+    <col min="7" max="8" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1997</v>
       </c>
@@ -683,7 +702,7 @@
         <v>http://datos.imss.gob.mx/node/751/download</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1997</v>
       </c>
@@ -713,7 +732,7 @@
         <v>http://datos.imss.gob.mx/node/750/download</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -743,7 +762,7 @@
         <v>http://datos.imss.gob.mx/node/749/download</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -773,7 +792,7 @@
         <v>http://datos.imss.gob.mx/node/741/download</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1997</v>
       </c>
@@ -803,7 +822,7 @@
         <v>http://datos.imss.gob.mx/node/610/download</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1998</v>
       </c>
@@ -833,7 +852,7 @@
         <v>http://datos.imss.gob.mx/node/748/download</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1998</v>
       </c>
@@ -863,7 +882,7 @@
         <v>http://datos.imss.gob.mx/node/747/download</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1998</v>
       </c>
@@ -893,7 +912,7 @@
         <v>http://datos.imss.gob.mx/node/746/download</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1998</v>
       </c>
@@ -923,7 +942,7 @@
         <v>http://datos.imss.gob.mx/node/745/download</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1998</v>
       </c>
@@ -953,7 +972,7 @@
         <v>http://datos.imss.gob.mx/node/744/download</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -983,7 +1002,7 @@
         <v>http://datos.imss.gob.mx/node/743/download</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1998</v>
       </c>
@@ -1013,7 +1032,7 @@
         <v>http://datos.imss.gob.mx/node/742/download</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1998</v>
       </c>
@@ -1043,7 +1062,7 @@
         <v>http://datos.imss.gob.mx/node/740/download</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1998</v>
       </c>
@@ -1073,7 +1092,7 @@
         <v>http://datos.imss.gob.mx/node/739/download</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1998</v>
       </c>
@@ -1103,7 +1122,7 @@
         <v>http://datos.imss.gob.mx/node/738/download</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1998</v>
       </c>
@@ -1133,7 +1152,7 @@
         <v>http://datos.imss.gob.mx/node/737/download</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1998</v>
       </c>
@@ -1163,7 +1182,7 @@
         <v>http://datos.imss.gob.mx/node/612/download</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1999</v>
       </c>
@@ -1193,7 +1212,7 @@
         <v>http://datos.imss.gob.mx/node/736/download</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1999</v>
       </c>
@@ -1223,7 +1242,7 @@
         <v>http://datos.imss.gob.mx/node/735/download</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1999</v>
       </c>
@@ -1253,7 +1272,7 @@
         <v>http://datos.imss.gob.mx/node/734/download</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -1283,7 +1302,7 @@
         <v>http://datos.imss.gob.mx/node/733/download</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1999</v>
       </c>
@@ -1313,7 +1332,7 @@
         <v>http://datos.imss.gob.mx/node/732/download</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -1343,7 +1362,7 @@
         <v>http://datos.imss.gob.mx/node/731/download</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1999</v>
       </c>
@@ -1373,7 +1392,7 @@
         <v>http://datos.imss.gob.mx/node/730/download</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1999</v>
       </c>
@@ -1403,7 +1422,7 @@
         <v>http://datos.imss.gob.mx/node/729/download</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1999</v>
       </c>
@@ -1433,7 +1452,7 @@
         <v>http://datos.imss.gob.mx/node/728/download</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1999</v>
       </c>
@@ -1463,7 +1482,7 @@
         <v>http://datos.imss.gob.mx/node/726/download</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1999</v>
       </c>
@@ -1493,7 +1512,7 @@
         <v>http://datos.imss.gob.mx/node/725/download</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1999</v>
       </c>
@@ -1523,7 +1542,7 @@
         <v>http://datos.imss.gob.mx/node/614/download</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2000</v>
       </c>
@@ -1553,7 +1572,7 @@
         <v>http://datos.imss.gob.mx/node/595/download</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2000</v>
       </c>
@@ -1583,7 +1602,7 @@
         <v>http://datos.imss.gob.mx/node/596/download</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2000</v>
       </c>
@@ -1613,7 +1632,7 @@
         <v>http://datos.imss.gob.mx/node/597/download</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2000</v>
       </c>
@@ -1643,7 +1662,7 @@
         <v>http://datos.imss.gob.mx/node/598/download</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2000</v>
       </c>
@@ -1673,7 +1692,7 @@
         <v>http://datos.imss.gob.mx/node/599/download</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2000</v>
       </c>
@@ -1703,7 +1722,7 @@
         <v>http://datos.imss.gob.mx/node/600/download</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2000</v>
       </c>
@@ -1733,7 +1752,7 @@
         <v>http://datos.imss.gob.mx/node/601/download</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2000</v>
       </c>
@@ -1763,7 +1782,7 @@
         <v>http://datos.imss.gob.mx/node/602/download</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2000</v>
       </c>
@@ -1793,7 +1812,7 @@
         <v>http://datos.imss.gob.mx/node/603/download</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2000</v>
       </c>
@@ -1823,7 +1842,7 @@
         <v>http://datos.imss.gob.mx/node/604/download</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2000</v>
       </c>
@@ -1853,7 +1872,7 @@
         <v>http://datos.imss.gob.mx/node/605/download</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2000</v>
       </c>
@@ -1883,7 +1902,7 @@
         <v>http://datos.imss.gob.mx/node/506/download</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2001</v>
       </c>
@@ -1913,7 +1932,7 @@
         <v>http://datos.imss.gob.mx/node/558/download</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2001</v>
       </c>
@@ -1943,7 +1962,7 @@
         <v>http://datos.imss.gob.mx/node/559/download</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2001</v>
       </c>
@@ -1973,7 +1992,7 @@
         <v>http://datos.imss.gob.mx/node/560/download</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2001</v>
       </c>
@@ -2003,7 +2022,7 @@
         <v>http://datos.imss.gob.mx/node/561/download</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2001</v>
       </c>
@@ -2033,7 +2052,7 @@
         <v>http://datos.imss.gob.mx/node/562/download</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2001</v>
       </c>
@@ -2063,7 +2082,7 @@
         <v>http://datos.imss.gob.mx/node/563/download</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2001</v>
       </c>
@@ -2093,7 +2112,7 @@
         <v>http://datos.imss.gob.mx/node/564/download</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2001</v>
       </c>
@@ -2123,7 +2142,7 @@
         <v>http://datos.imss.gob.mx/node/565/download</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2001</v>
       </c>
@@ -2153,7 +2172,7 @@
         <v>http://datos.imss.gob.mx/node/566/download</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2001</v>
       </c>
@@ -2183,7 +2202,7 @@
         <v>http://datos.imss.gob.mx/node/567/download</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2001</v>
       </c>
@@ -2213,7 +2232,7 @@
         <v>http://datos.imss.gob.mx/node/568/download</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2001</v>
       </c>
@@ -2243,7 +2262,7 @@
         <v>http://datos.imss.gob.mx/node/508/download</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2002</v>
       </c>
@@ -2273,7 +2292,7 @@
         <v>http://datos.imss.gob.mx/node/549/download</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2002</v>
       </c>
@@ -2303,7 +2322,7 @@
         <v>http://datos.imss.gob.mx/node/550/download</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2002</v>
       </c>
@@ -2333,7 +2352,7 @@
         <v>http://datos.imss.gob.mx/node/551/download</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2002</v>
       </c>
@@ -2363,7 +2382,7 @@
         <v>http://datos.imss.gob.mx/node/545/download</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2002</v>
       </c>
@@ -2393,7 +2412,7 @@
         <v>http://datos.imss.gob.mx/node/546/download</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2002</v>
       </c>
@@ -2423,7 +2442,7 @@
         <v>http://datos.imss.gob.mx/node/552/download</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2002</v>
       </c>
@@ -2453,7 +2472,7 @@
         <v>http://datos.imss.gob.mx/node/553/download</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2002</v>
       </c>
@@ -2483,7 +2502,7 @@
         <v>http://datos.imss.gob.mx/node/554/download</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2002</v>
       </c>
@@ -2513,7 +2532,7 @@
         <v>http://datos.imss.gob.mx/node/555/download</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2002</v>
       </c>
@@ -2543,7 +2562,7 @@
         <v>http://datos.imss.gob.mx/node/556/download</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2002</v>
       </c>
@@ -2573,7 +2592,7 @@
         <v>http://datos.imss.gob.mx/node/557/download</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2002</v>
       </c>
@@ -2603,7 +2622,7 @@
         <v>http://datos.imss.gob.mx/node/511/download</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2003</v>
       </c>
@@ -2633,7 +2652,7 @@
         <v>http://datos.imss.gob.mx/node/515/download</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2003</v>
       </c>
@@ -2663,7 +2682,7 @@
         <v>http://datos.imss.gob.mx/node/516/download</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2003</v>
       </c>
@@ -2693,7 +2712,7 @@
         <v>http://datos.imss.gob.mx/node/517/download</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2003</v>
       </c>
@@ -2723,7 +2742,7 @@
         <v>http://datos.imss.gob.mx/node/518/download</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2003</v>
       </c>
@@ -2753,7 +2772,7 @@
         <v>http://datos.imss.gob.mx/node/519/download</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2003</v>
       </c>
@@ -2783,7 +2802,7 @@
         <v>http://datos.imss.gob.mx/node/520/download</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2003</v>
       </c>
@@ -2813,7 +2832,7 @@
         <v>http://datos.imss.gob.mx/node/521/download</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2003</v>
       </c>
@@ -2843,7 +2862,7 @@
         <v>http://datos.imss.gob.mx/node/522/download</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2003</v>
       </c>
@@ -2873,7 +2892,7 @@
         <v>http://datos.imss.gob.mx/node/523/download</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2003</v>
       </c>
@@ -2903,7 +2922,7 @@
         <v>http://datos.imss.gob.mx/node/524/download</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2003</v>
       </c>
@@ -2933,7 +2952,7 @@
         <v>http://datos.imss.gob.mx/node/525/download</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2003</v>
       </c>
@@ -2963,7 +2982,7 @@
         <v>http://datos.imss.gob.mx/node/512/download</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2004</v>
       </c>
@@ -2993,7 +3012,7 @@
         <v>http://datos.imss.gob.mx/node/387/download</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2004</v>
       </c>
@@ -3023,7 +3042,7 @@
         <v>http://datos.imss.gob.mx/node/388/download</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2004</v>
       </c>
@@ -3053,7 +3072,7 @@
         <v>http://datos.imss.gob.mx/node/389/download</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2004</v>
       </c>
@@ -3083,7 +3102,7 @@
         <v>http://datos.imss.gob.mx/node/390/download</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2004</v>
       </c>
@@ -3113,7 +3132,7 @@
         <v>http://datos.imss.gob.mx/node/391/download</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2004</v>
       </c>
@@ -3143,7 +3162,7 @@
         <v>http://datos.imss.gob.mx/node/392/download</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2004</v>
       </c>
@@ -3173,7 +3192,7 @@
         <v>http://datos.imss.gob.mx/node/393/download</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2004</v>
       </c>
@@ -3203,7 +3222,7 @@
         <v>http://datos.imss.gob.mx/node/394/download</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2004</v>
       </c>
@@ -3233,7 +3252,7 @@
         <v>http://datos.imss.gob.mx/node/395/download</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2004</v>
       </c>
@@ -3263,7 +3282,7 @@
         <v>http://datos.imss.gob.mx/node/396/download</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2004</v>
       </c>
@@ -3293,7 +3312,7 @@
         <v>http://datos.imss.gob.mx/node/397/download</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2004</v>
       </c>
@@ -3323,7 +3342,7 @@
         <v>http://datos.imss.gob.mx/node/398/download</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2005</v>
       </c>
@@ -3353,7 +3372,7 @@
         <v>http://datos.imss.gob.mx/node/333/download</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2005</v>
       </c>
@@ -3383,7 +3402,7 @@
         <v>http://datos.imss.gob.mx/node/334/download</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2005</v>
       </c>
@@ -3413,7 +3432,7 @@
         <v>http://datos.imss.gob.mx/node/335/download</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2005</v>
       </c>
@@ -3443,7 +3462,7 @@
         <v>http://datos.imss.gob.mx/node/336/download</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2005</v>
       </c>
@@ -3473,7 +3492,7 @@
         <v>http://datos.imss.gob.mx/node/337/download</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2005</v>
       </c>
@@ -3503,7 +3522,7 @@
         <v>http://datos.imss.gob.mx/node/338/download</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2005</v>
       </c>
@@ -3533,7 +3552,7 @@
         <v>http://datos.imss.gob.mx/node/339/download</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2005</v>
       </c>
@@ -3563,7 +3582,7 @@
         <v>http://datos.imss.gob.mx/node/340/download</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2005</v>
       </c>
@@ -3593,7 +3612,7 @@
         <v>http://datos.imss.gob.mx/node/341/download</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2005</v>
       </c>
@@ -3623,7 +3642,7 @@
         <v>http://datos.imss.gob.mx/node/342/download</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2005</v>
       </c>
@@ -3653,7 +3672,7 @@
         <v>http://datos.imss.gob.mx/node/343/download</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2005</v>
       </c>
@@ -3683,7 +3702,7 @@
         <v>http://datos.imss.gob.mx/node/344/download</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2006</v>
       </c>
@@ -3713,7 +3732,7 @@
         <v>http://datos.imss.gob.mx/node/294/download</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2006</v>
       </c>
@@ -3743,7 +3762,7 @@
         <v>http://datos.imss.gob.mx/node/295/download</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2006</v>
       </c>
@@ -3773,7 +3792,7 @@
         <v>http://datos.imss.gob.mx/node/296/download</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2006</v>
       </c>
@@ -3803,7 +3822,7 @@
         <v>http://datos.imss.gob.mx/node/297/download</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2006</v>
       </c>
@@ -3833,7 +3852,7 @@
         <v>http://datos.imss.gob.mx/node/298/download</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2006</v>
       </c>
@@ -3863,7 +3882,7 @@
         <v>http://datos.imss.gob.mx/node/299/download</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2006</v>
       </c>
@@ -3893,7 +3912,7 @@
         <v>http://datos.imss.gob.mx/node/300/download</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2006</v>
       </c>
@@ -3923,7 +3942,7 @@
         <v>http://datos.imss.gob.mx/node/301/download</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2006</v>
       </c>
@@ -3953,7 +3972,7 @@
         <v>http://datos.imss.gob.mx/node/302/download</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2006</v>
       </c>
@@ -3983,7 +4002,7 @@
         <v>http://datos.imss.gob.mx/node/303/download</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2006</v>
       </c>
@@ -4013,7 +4032,7 @@
         <v>http://datos.imss.gob.mx/node/304/download</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2006</v>
       </c>
@@ -4043,7 +4062,7 @@
         <v>http://datos.imss.gob.mx/node/305/download</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2007</v>
       </c>
@@ -4073,7 +4092,7 @@
         <v>http://datos.imss.gob.mx/node/281/download</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2007</v>
       </c>
@@ -4103,7 +4122,7 @@
         <v>http://datos.imss.gob.mx/node/282/download</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2007</v>
       </c>
@@ -4133,7 +4152,7 @@
         <v>http://datos.imss.gob.mx/node/283/download</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2007</v>
       </c>
@@ -4163,7 +4182,7 @@
         <v>http://datos.imss.gob.mx/node/284/download</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2007</v>
       </c>
@@ -4193,7 +4212,7 @@
         <v>http://datos.imss.gob.mx/node/285/download</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2007</v>
       </c>
@@ -4223,7 +4242,7 @@
         <v>http://datos.imss.gob.mx/node/286/download</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2007</v>
       </c>
@@ -4253,7 +4272,7 @@
         <v>http://datos.imss.gob.mx/node/287/download</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2007</v>
       </c>
@@ -4283,7 +4302,7 @@
         <v>http://datos.imss.gob.mx/node/288/download</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2007</v>
       </c>
@@ -4313,7 +4332,7 @@
         <v>http://datos.imss.gob.mx/node/289/download</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2007</v>
       </c>
@@ -4343,7 +4362,7 @@
         <v>http://datos.imss.gob.mx/node/290/download</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2007</v>
       </c>
@@ -4373,7 +4392,7 @@
         <v>http://datos.imss.gob.mx/node/291/download</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2007</v>
       </c>
@@ -4403,7 +4422,7 @@
         <v>http://datos.imss.gob.mx/node/292/download</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2008</v>
       </c>
@@ -4433,7 +4452,7 @@
         <v>http://datos.imss.gob.mx/node/262/download</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2008</v>
       </c>
@@ -4463,7 +4482,7 @@
         <v>http://datos.imss.gob.mx/node/264/download</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2008</v>
       </c>
@@ -4493,7 +4512,7 @@
         <v>http://datos.imss.gob.mx/node/265/download</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2008</v>
       </c>
@@ -4523,7 +4542,7 @@
         <v>http://datos.imss.gob.mx/node/266/download</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2008</v>
       </c>
@@ -4553,7 +4572,7 @@
         <v>http://datos.imss.gob.mx/node/267/download</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2008</v>
       </c>
@@ -4583,7 +4602,7 @@
         <v>http://datos.imss.gob.mx/node/268/download</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2008</v>
       </c>
@@ -4613,7 +4632,7 @@
         <v>http://datos.imss.gob.mx/node/269/download</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2008</v>
       </c>
@@ -4643,7 +4662,7 @@
         <v>http://datos.imss.gob.mx/node/270/download</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2008</v>
       </c>
@@ -4673,7 +4692,7 @@
         <v>http://datos.imss.gob.mx/node/271/download</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2008</v>
       </c>
@@ -4703,7 +4722,7 @@
         <v>http://datos.imss.gob.mx/node/272/download</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2008</v>
       </c>
@@ -4733,7 +4752,7 @@
         <v>http://datos.imss.gob.mx/node/273/download</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2008</v>
       </c>
@@ -4763,7 +4782,7 @@
         <v>http://datos.imss.gob.mx/node/277/download</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2009</v>
       </c>
@@ -4793,7 +4812,7 @@
         <v>http://datos.imss.gob.mx/node/158/download</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2009</v>
       </c>
@@ -4823,7 +4842,7 @@
         <v>http://datos.imss.gob.mx/node/160/download</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2009</v>
       </c>
@@ -4853,7 +4872,7 @@
         <v>http://datos.imss.gob.mx/node/161/download</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2009</v>
       </c>
@@ -4883,7 +4902,7 @@
         <v>http://datos.imss.gob.mx/node/168/download</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2009</v>
       </c>
@@ -4913,7 +4932,7 @@
         <v>http://datos.imss.gob.mx/node/180/download</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2009</v>
       </c>
@@ -4943,7 +4962,7 @@
         <v>http://datos.imss.gob.mx/node/182/download</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2009</v>
       </c>
@@ -4973,7 +4992,7 @@
         <v>http://datos.imss.gob.mx/node/183/download</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2009</v>
       </c>
@@ -5003,7 +5022,7 @@
         <v>http://datos.imss.gob.mx/node/184/download</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2009</v>
       </c>
@@ -5033,7 +5052,7 @@
         <v>http://datos.imss.gob.mx/node/185/download</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2009</v>
       </c>
@@ -5063,7 +5082,7 @@
         <v>http://datos.imss.gob.mx/node/186/download</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2009</v>
       </c>
@@ -5093,7 +5112,7 @@
         <v>http://datos.imss.gob.mx/node/187/download</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2009</v>
       </c>
@@ -5123,7 +5142,7 @@
         <v>http://datos.imss.gob.mx/node/188/download</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2010</v>
       </c>
@@ -5153,7 +5172,7 @@
         <v>http://datos.imss.gob.mx/node/169/download</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2010</v>
       </c>
@@ -5183,7 +5202,7 @@
         <v>http://datos.imss.gob.mx/node/170/download</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2010</v>
       </c>
@@ -5213,7 +5232,7 @@
         <v>http://datos.imss.gob.mx/node/171/download</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2010</v>
       </c>
@@ -5243,7 +5262,7 @@
         <v>http://datos.imss.gob.mx/node/172/download</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2010</v>
       </c>
@@ -5273,7 +5292,7 @@
         <v>http://datos.imss.gob.mx/node/173/download</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2010</v>
       </c>
@@ -5303,7 +5322,7 @@
         <v>http://datos.imss.gob.mx/node/174/download</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2010</v>
       </c>
@@ -5333,7 +5352,7 @@
         <v>http://datos.imss.gob.mx/node/175/download</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2010</v>
       </c>
@@ -5363,7 +5382,7 @@
         <v>http://datos.imss.gob.mx/node/176/download</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2010</v>
       </c>
@@ -5393,7 +5412,7 @@
         <v>http://datos.imss.gob.mx/node/177/download</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2010</v>
       </c>
@@ -5423,7 +5442,7 @@
         <v>http://datos.imss.gob.mx/node/178/download</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2010</v>
       </c>
@@ -5453,7 +5472,7 @@
         <v>http://datos.imss.gob.mx/node/179/download</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2010</v>
       </c>
@@ -5483,7 +5502,7 @@
         <v>http://datos.imss.gob.mx/node/181/download</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2011</v>
       </c>
@@ -5513,7 +5532,7 @@
         <v>http://datos.imss.gob.mx/node/159/download</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2011</v>
       </c>
@@ -5543,7 +5562,7 @@
         <v>http://datos.imss.gob.mx/node/156/download</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2011</v>
       </c>
@@ -5573,7 +5592,7 @@
         <v>http://datos.imss.gob.mx/node/155/download</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2011</v>
       </c>
@@ -5603,7 +5622,7 @@
         <v>http://datos.imss.gob.mx/node/154/download</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2011</v>
       </c>
@@ -5633,7 +5652,7 @@
         <v>http://datos.imss.gob.mx/node/153/download</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2011</v>
       </c>
@@ -5663,7 +5682,7 @@
         <v>http://datos.imss.gob.mx/node/152/download</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2011</v>
       </c>
@@ -5693,7 +5712,7 @@
         <v>http://datos.imss.gob.mx/node/151/download</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2011</v>
       </c>
@@ -5723,7 +5742,7 @@
         <v>http://datos.imss.gob.mx/node/150/download</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2011</v>
       </c>
@@ -5753,7 +5772,7 @@
         <v>http://datos.imss.gob.mx/node/149/download</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2011</v>
       </c>
@@ -5783,7 +5802,7 @@
         <v>http://datos.imss.gob.mx/node/148/download</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2011</v>
       </c>
@@ -5813,7 +5832,7 @@
         <v>http://datos.imss.gob.mx/node/147/download</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2011</v>
       </c>
@@ -5843,7 +5862,7 @@
         <v>http://datos.imss.gob.mx/node/146/download</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2012</v>
       </c>
@@ -5873,7 +5892,7 @@
         <v>http://datos.imss.gob.mx/node/143/download</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2012</v>
       </c>
@@ -5903,7 +5922,7 @@
         <v>http://datos.imss.gob.mx/node/142/download</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2012</v>
       </c>
@@ -5933,7 +5952,7 @@
         <v>http://datos.imss.gob.mx/node/141/download</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2012</v>
       </c>
@@ -5963,7 +5982,7 @@
         <v>http://datos.imss.gob.mx/node/140/download</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2012</v>
       </c>
@@ -5993,7 +6012,7 @@
         <v>http://datos.imss.gob.mx/node/139/download</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2012</v>
       </c>
@@ -6023,7 +6042,7 @@
         <v>http://datos.imss.gob.mx/node/138/download</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2012</v>
       </c>
@@ -6053,7 +6072,7 @@
         <v>http://datos.imss.gob.mx/node/137/download</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2012</v>
       </c>
@@ -6083,7 +6102,7 @@
         <v>http://datos.imss.gob.mx/node/136/download</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2012</v>
       </c>
@@ -6113,7 +6132,7 @@
         <v>http://datos.imss.gob.mx/node/135/download</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2012</v>
       </c>
@@ -6143,7 +6162,7 @@
         <v>http://datos.imss.gob.mx/node/134/download</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2012</v>
       </c>
@@ -6173,7 +6192,7 @@
         <v>http://datos.imss.gob.mx/node/133/download</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2012</v>
       </c>
@@ -6203,7 +6222,7 @@
         <v>http://datos.imss.gob.mx/node/84/download</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2013</v>
       </c>
@@ -6233,7 +6252,7 @@
         <v>http://datos.imss.gob.mx/node/20/download</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2013</v>
       </c>
@@ -6263,7 +6282,7 @@
         <v>http://datos.imss.gob.mx/node/23/download</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2013</v>
       </c>
@@ -6293,7 +6312,7 @@
         <v>http://datos.imss.gob.mx/node/24/download</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2013</v>
       </c>
@@ -6323,7 +6342,7 @@
         <v>http://datos.imss.gob.mx/node/55/download</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2013</v>
       </c>
@@ -6353,7 +6372,7 @@
         <v>http://datos.imss.gob.mx/node/57/download</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2013</v>
       </c>
@@ -6383,7 +6402,7 @@
         <v>http://datos.imss.gob.mx/node/58/download</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2013</v>
       </c>
@@ -6413,7 +6432,7 @@
         <v>http://datos.imss.gob.mx/node/59/download</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2013</v>
       </c>
@@ -6443,7 +6462,7 @@
         <v>http://datos.imss.gob.mx/node/60/download</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2013</v>
       </c>
@@ -6473,7 +6492,7 @@
         <v>http://datos.imss.gob.mx/node/63/download</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2013</v>
       </c>
@@ -6503,7 +6522,7 @@
         <v>http://datos.imss.gob.mx/node/64/download</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2013</v>
       </c>
@@ -6533,7 +6552,7 @@
         <v>http://datos.imss.gob.mx/node/65/download</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2013</v>
       </c>
@@ -6563,7 +6582,7 @@
         <v>http://datos.imss.gob.mx/node/66/download</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2014</v>
       </c>
@@ -6593,7 +6612,7 @@
         <v>http://datos.imss.gob.mx/node/72/download</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2014</v>
       </c>
@@ -6623,7 +6642,7 @@
         <v>http://datos.imss.gob.mx/node/73/download</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2014</v>
       </c>
@@ -6653,7 +6672,7 @@
         <v>http://datos.imss.gob.mx/node/74/download</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2014</v>
       </c>
@@ -6683,7 +6702,7 @@
         <v>http://datos.imss.gob.mx/node/76/download</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2014</v>
       </c>
@@ -6713,7 +6732,7 @@
         <v>http://datos.imss.gob.mx/node/75/download</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2014</v>
       </c>
@@ -6743,7 +6762,7 @@
         <v>http://datos.imss.gob.mx/node/77/download</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2014</v>
       </c>
@@ -6773,7 +6792,7 @@
         <v>http://datos.imss.gob.mx/node/78/download</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2014</v>
       </c>
@@ -6803,7 +6822,7 @@
         <v>http://datos.imss.gob.mx/node/79/download</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2014</v>
       </c>
@@ -6833,7 +6852,7 @@
         <v>http://datos.imss.gob.mx/node/81/download</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2014</v>
       </c>
@@ -6863,7 +6882,7 @@
         <v>http://datos.imss.gob.mx/node/194/download</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2014</v>
       </c>
@@ -6893,7 +6912,7 @@
         <v>http://datos.imss.gob.mx/node/195/download</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2014</v>
       </c>
@@ -6923,7 +6942,7 @@
         <v>http://datos.imss.gob.mx/node/196/download</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2015</v>
       </c>
@@ -6953,7 +6972,7 @@
         <v>http://datos.imss.gob.mx/node/190/download</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2015</v>
       </c>
@@ -6983,7 +7002,7 @@
         <v>http://datos.imss.gob.mx/node/191/download</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2015</v>
       </c>
@@ -7013,7 +7032,7 @@
         <v>http://datos.imss.gob.mx/node/192/download</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2015</v>
       </c>
@@ -7043,7 +7062,7 @@
         <v>http://datos.imss.gob.mx/node/193/download</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2015</v>
       </c>
@@ -7073,7 +7092,7 @@
         <v>http://datos.imss.gob.mx/node/276/download</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2015</v>
       </c>
@@ -7103,7 +7122,7 @@
         <v>http://datos.imss.gob.mx/node/279/download</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2015</v>
       </c>
@@ -7133,7 +7152,7 @@
         <v>http://datos.imss.gob.mx/node/306/download</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2015</v>
       </c>
@@ -7163,7 +7182,7 @@
         <v>http://datos.imss.gob.mx/node/308/download</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2015</v>
       </c>
@@ -7193,7 +7212,7 @@
         <v>http://datos.imss.gob.mx/node/310/download</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2015</v>
       </c>
@@ -7223,7 +7242,7 @@
         <v>http://datos.imss.gob.mx/node/319/download</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2015</v>
       </c>
@@ -7253,7 +7272,7 @@
         <v>http://datos.imss.gob.mx/node/321/download</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2015</v>
       </c>
@@ -7283,7 +7302,7 @@
         <v>http://datos.imss.gob.mx/node/325/download</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2016</v>
       </c>
@@ -7313,7 +7332,7 @@
         <v>http://datos.imss.gob.mx/node/327/download</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2016</v>
       </c>
@@ -7343,7 +7362,7 @@
         <v>http://datos.imss.gob.mx/node/371/download</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2016</v>
       </c>
@@ -7373,7 +7392,7 @@
         <v>http://datos.imss.gob.mx/node/377/download</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2016</v>
       </c>
@@ -7403,7 +7422,7 @@
         <v>http://datos.imss.gob.mx/node/400/download</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2016</v>
       </c>
@@ -7433,7 +7452,7 @@
         <v>http://datos.imss.gob.mx/node/401/download</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2016</v>
       </c>
@@ -7463,7 +7482,7 @@
         <v>http://datos.imss.gob.mx/node/405/download</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2016</v>
       </c>
@@ -7493,7 +7512,7 @@
         <v>http://datos.imss.gob.mx/node/502/download</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2016</v>
       </c>
@@ -7523,7 +7542,7 @@
         <v>http://datos.imss.gob.mx/node/513/download</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2016</v>
       </c>
@@ -7553,7 +7572,7 @@
         <v>http://datos.imss.gob.mx/node/526/download</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2016</v>
       </c>
@@ -7583,7 +7602,7 @@
         <v>http://datos.imss.gob.mx/node/537/download</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2016</v>
       </c>
@@ -7613,7 +7632,7 @@
         <v>http://datos.imss.gob.mx/node/541/download</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2016</v>
       </c>
@@ -7643,7 +7662,7 @@
         <v>http://datos.imss.gob.mx/node/543/download</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2017</v>
       </c>
@@ -7673,7 +7692,7 @@
         <v>http://datos.imss.gob.mx/node/548/download</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2017</v>
       </c>
@@ -7703,7 +7722,7 @@
         <v>http://datos.imss.gob.mx/node/577/download</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2017</v>
       </c>
@@ -7733,7 +7752,7 @@
         <v>http://datos.imss.gob.mx/node/580/download</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2017</v>
       </c>
@@ -7763,7 +7782,7 @@
         <v>http://datos.imss.gob.mx/node/591/download</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2017</v>
       </c>
@@ -7793,7 +7812,7 @@
         <v>http://datos.imss.gob.mx/node/593/download</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2017</v>
       </c>
@@ -7823,7 +7842,7 @@
         <v>http://datos.imss.gob.mx/node/607/download</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2017</v>
       </c>
@@ -7853,7 +7872,7 @@
         <v>http://datos.imss.gob.mx/node/621/download</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2017</v>
       </c>
@@ -7883,7 +7902,7 @@
         <v>http://datos.imss.gob.mx/node/629/download</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2017</v>
       </c>
@@ -7913,7 +7932,7 @@
         <v>http://datos.imss.gob.mx/node/634/download</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2017</v>
       </c>
@@ -7943,7 +7962,7 @@
         <v>http://datos.imss.gob.mx/node/672/download</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2017</v>
       </c>
@@ -7973,7 +7992,7 @@
         <v>http://datos.imss.gob.mx/node/701/download</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2017</v>
       </c>
@@ -8003,7 +8022,7 @@
         <v>http://datos.imss.gob.mx/node/702/download</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2018</v>
       </c>
@@ -8033,7 +8052,7 @@
         <v>http://datos.imss.gob.mx/node/706/download</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2018</v>
       </c>
@@ -8063,7 +8082,7 @@
         <v>http://datos.imss.gob.mx/node/714/download</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2018</v>
       </c>
@@ -8093,7 +8112,7 @@
         <v>http://datos.imss.gob.mx/node/716/download</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2018</v>
       </c>
@@ -8123,7 +8142,7 @@
         <v>http://datos.imss.gob.mx/node/718/download</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2018</v>
       </c>
@@ -8153,7 +8172,7 @@
         <v>http://datos.imss.gob.mx/node/761/download</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2018</v>
       </c>
@@ -8183,7 +8202,7 @@
         <v>http://datos.imss.gob.mx/node/763/download</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2018</v>
       </c>
@@ -8213,7 +8232,7 @@
         <v>http://datos.imss.gob.mx/node/785/download</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2018</v>
       </c>
@@ -8243,7 +8262,7 @@
         <v>http://datos.imss.gob.mx/node/787/download</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2018</v>
       </c>
@@ -8273,7 +8292,7 @@
         <v>http://datos.imss.gob.mx/node/795/download</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2018</v>
       </c>
@@ -8303,7 +8322,7 @@
         <v>http://datos.imss.gob.mx/node/833/download</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2018</v>
       </c>
@@ -8333,7 +8352,7 @@
         <v>http://datos.imss.gob.mx/node/841/download</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2018</v>
       </c>
@@ -8363,7 +8382,7 @@
         <v>http://datos.imss.gob.mx/node/843/download</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2019</v>
       </c>
@@ -8393,7 +8412,7 @@
         <v>http://datos.imss.gob.mx/node/858/download</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2019</v>
       </c>
@@ -8423,7 +8442,7 @@
         <v>http://datos.imss.gob.mx/node/966/download</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2019</v>
       </c>
@@ -8453,7 +8472,7 @@
         <v>http://datos.imss.gob.mx/node/974/download</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2019</v>
       </c>
@@ -8483,7 +8502,7 @@
         <v>http://datos.imss.gob.mx/node/976/download</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2019</v>
       </c>
@@ -8513,7 +8532,7 @@
         <v>http://datos.imss.gob.mx/node/978/download</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2019</v>
       </c>
@@ -8543,7 +8562,7 @@
         <v>http://datos.imss.gob.mx/node/980/download</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2019</v>
       </c>
@@ -8573,7 +8592,7 @@
         <v>http://datos.imss.gob.mx/node/984/download</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2019</v>
       </c>
@@ -8603,7 +8622,7 @@
         <v>http://datos.imss.gob.mx/node/988/download</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2019</v>
       </c>
@@ -8633,7 +8652,7 @@
         <v>http://datos.imss.gob.mx/node/990/download</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2019</v>
       </c>
@@ -8663,7 +8682,7 @@
         <v>http://datos.imss.gob.mx/node/994/download</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2019</v>
       </c>
@@ -8693,7 +8712,7 @@
         <v>http://datos.imss.gob.mx/node/1002/download</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2019</v>
       </c>
@@ -8723,7 +8742,7 @@
         <v>http://datos.imss.gob.mx/node/1004/download</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2020</v>
       </c>
@@ -8753,7 +8772,7 @@
         <v>http://datos.imss.gob.mx/node/1007/download</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2020</v>
       </c>
@@ -8783,7 +8802,7 @@
         <v>http://datos.imss.gob.mx/node/1010/download</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2020</v>
       </c>
@@ -8813,7 +8832,7 @@
         <v>http://datos.imss.gob.mx/node/1078/download</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2020</v>
       </c>
@@ -8843,7 +8862,7 @@
         <v>http://datos.imss.gob.mx/node/1080/download</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2020</v>
       </c>
@@ -8873,7 +8892,7 @@
         <v>http://datos.imss.gob.mx/node/1082/download</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2020</v>
       </c>
@@ -8903,7 +8922,7 @@
         <v>http://datos.imss.gob.mx/node/1086/download</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2020</v>
       </c>
@@ -8933,7 +8952,7 @@
         <v>http://datos.imss.gob.mx/node/1090/download</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2020</v>
       </c>
@@ -8963,7 +8982,7 @@
         <v>http://datos.imss.gob.mx/node/1098/download</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2020</v>
       </c>
@@ -8993,7 +9012,7 @@
         <v>http://datos.imss.gob.mx/node/1100/download</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2020</v>
       </c>
@@ -9023,7 +9042,7 @@
         <v>http://datos.imss.gob.mx/node/1102/download</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2020</v>
       </c>
@@ -9053,7 +9072,7 @@
         <v>http://datos.imss.gob.mx/node/1104/download</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2020</v>
       </c>
@@ -9083,7 +9102,7 @@
         <v>http://datos.imss.gob.mx/node/1107/download</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2021</v>
       </c>
@@ -9113,7 +9132,7 @@
         <v>http://datos.imss.gob.mx/node/1113/download</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2021</v>
       </c>
@@ -9143,7 +9162,7 @@
         <v>http://datos.imss.gob.mx/node/1116/download</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2021</v>
       </c>
@@ -9173,7 +9192,7 @@
         <v>http://datos.imss.gob.mx/node/1118/download</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2021</v>
       </c>
@@ -9203,7 +9222,7 @@
         <v>http://datos.imss.gob.mx/node/1120/download</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2021</v>
       </c>
@@ -9233,7 +9252,7 @@
         <v>http://datos.imss.gob.mx/node/1125/download</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2021</v>
       </c>
@@ -9263,7 +9282,7 @@
         <v>http://datos.imss.gob.mx/node/1129/download</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2021</v>
       </c>
@@ -9293,7 +9312,7 @@
         <v>http://datos.imss.gob.mx/node/1131/download</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2021</v>
       </c>
@@ -9323,7 +9342,7 @@
         <v>http://datos.imss.gob.mx/node/1133/download</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2021</v>
       </c>
@@ -9353,7 +9372,7 @@
         <v>http://datos.imss.gob.mx/node/1135/download</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2021</v>
       </c>
@@ -9383,7 +9402,7 @@
         <v>http://datos.imss.gob.mx/node/1137/download</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2021</v>
       </c>
@@ -9413,9 +9432,40 @@
         <v>http://datos.imss.gob.mx/node/1142/download</v>
       </c>
     </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2021</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D294" t="str">
+        <f t="shared" ref="D294" si="26">+LEFT(C294,30)</f>
+        <v>http://datos.imss.gob.mx/node/</v>
+      </c>
+      <c r="E294">
+        <v>1146</v>
+      </c>
+      <c r="F294" t="str">
+        <f t="shared" ref="F294" si="27">+RIGHT(C294,9)</f>
+        <v>/download</v>
+      </c>
+      <c r="G294" t="str">
+        <f t="shared" ref="G294" si="28">+_xlfn.CONCAT(D294,E294,F294)</f>
+        <v>http://datos.imss.gob.mx/node/1146/download</v>
+      </c>
+      <c r="H294" t="str">
+        <f t="shared" ref="H294" si="29">+TEXT(G294,)</f>
+        <v>http://datos.imss.gob.mx/node/1146/download</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H172" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A2:A18 A20:A66 A283:A286 A291 A294:A1048576">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A18 A20:A66 A283:A286 A291 A295:A1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9931,7 +9981,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B271:B293">
+  <conditionalFormatting sqref="B271:B294">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -9979,7 +10029,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A290">
+  <conditionalFormatting sqref="A290 A294">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -10008,6 +10058,7 @@
     <hyperlink ref="C291" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="C292" r:id="rId15" xr:uid="{EBD47CA1-6BFC-4E6C-80FF-F635A1766B93}"/>
     <hyperlink ref="C293" r:id="rId16" xr:uid="{8FBFE6D8-ADD2-4BDB-B8F9-69E9FAA54A03}"/>
+    <hyperlink ref="C294" r:id="rId17" xr:uid="{303D225A-A4E8-4A5B-87CE-D96508CC560E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
